--- a/branches/master/StructureDefinition-ManufacturedItemDefinition-uv-epi.xlsx
+++ b/branches/master/StructureDefinition-ManufacturedItemDefinition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-24T15:56:43+00:00</t>
+    <t>2022-11-25T11:36:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-ManufacturedItemDefinition-uv-epi.xlsx
+++ b/branches/master/StructureDefinition-ManufacturedItemDefinition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-25T11:36:47+00:00</t>
+    <t>2022-11-25T11:53:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-ManufacturedItemDefinition-uv-epi.xlsx
+++ b/branches/master/StructureDefinition-ManufacturedItemDefinition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-25T11:53:22+00:00</t>
+    <t>2022-11-25T11:57:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-ManufacturedItemDefinition-uv-epi.xlsx
+++ b/branches/master/StructureDefinition-ManufacturedItemDefinition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-25T11:57:58+00:00</t>
+    <t>2022-11-26T17:48:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-ManufacturedItemDefinition-uv-epi.xlsx
+++ b/branches/master/StructureDefinition-ManufacturedItemDefinition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-26T17:48:47+00:00</t>
+    <t>2022-11-28T10:19:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-ManufacturedItemDefinition-uv-epi.xlsx
+++ b/branches/master/StructureDefinition-ManufacturedItemDefinition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-28T10:19:29+00:00</t>
+    <t>2022-11-28T11:36:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-ManufacturedItemDefinition-uv-epi.xlsx
+++ b/branches/master/StructureDefinition-ManufacturedItemDefinition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-28T11:36:40+00:00</t>
+    <t>2022-11-28T11:42:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-ManufacturedItemDefinition-uv-epi.xlsx
+++ b/branches/master/StructureDefinition-ManufacturedItemDefinition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-28T11:42:39+00:00</t>
+    <t>2022-11-28T13:17:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-ManufacturedItemDefinition-uv-epi.xlsx
+++ b/branches/master/StructureDefinition-ManufacturedItemDefinition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-28T13:17:59+00:00</t>
+    <t>2022-11-28T13:54:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-ManufacturedItemDefinition-uv-epi.xlsx
+++ b/branches/master/StructureDefinition-ManufacturedItemDefinition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-28T13:54:36+00:00</t>
+    <t>2022-11-28T14:10:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-ManufacturedItemDefinition-uv-epi.xlsx
+++ b/branches/master/StructureDefinition-ManufacturedItemDefinition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-28T14:10:20+00:00</t>
+    <t>2022-11-29T11:19:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-ManufacturedItemDefinition-uv-epi.xlsx
+++ b/branches/master/StructureDefinition-ManufacturedItemDefinition-uv-epi.xlsx
@@ -24,7 +24,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/uv/vulcan-eproduct-info/StructureDefinition/ManufacturedItemDefinition-uv-epi</t>
+    <t>http://hl7.org/fhir/uv/emedicinal-product-info/StructureDefinition/ManufacturedItemDefinition-uv-epi</t>
   </si>
   <si>
     <t>Version</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-29T11:19:39+00:00</t>
+    <t>2022-12-01T10:11:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -568,7 +568,7 @@
     <t>http://www.acme.com/identifiers/patient</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/uv/vulcan-eproduct-info/ValueSet/manufacturedItemIdSystems</t>
+    <t>http://hl7.org/fhir/uv/emedicinal-product-info/ValueSet/manufacturedItemIdSystems</t>
   </si>
   <si>
     <t>Identifier.system</t>
@@ -679,7 +679,7 @@
     <t>Dose form as manufactured and before any transformation into the pharmaceutical product.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/uv/vulcan-eproduct-info/ValueSet/PharmaceuticalDoseForm</t>
+    <t>http://hl7.org/fhir/uv/emedicinal-product-info/ValueSet/PharmaceuticalDoseForm</t>
   </si>
   <si>
     <t>Manufactured Item.Manufactured Dose Form</t>
@@ -694,7 +694,7 @@
     <t>The “real world” units in which the quantity of the manufactured item is described.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/uv/vulcan-eproduct-info/ValueSet/unitofPresentation</t>
+    <t>http://hl7.org/fhir/uv/emedicinal-product-info/ValueSet/unitofPresentation</t>
   </si>
   <si>
     <t>Manufactured Item.Unit of Presentation</t>
@@ -703,7 +703,7 @@
     <t>ManufacturedItemDefinition.manufacturer</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/uv/vulcan-eproduct-info/StructureDefinition/Organization-uv-epi)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/uv/emedicinal-product-info/StructureDefinition/Organization-uv-epi)
 </t>
   </si>
   <si>
@@ -838,7 +838,7 @@
 &lt;/valueCodeableConcept&gt;</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/uv/vulcan-eproduct-info/ValueSet/propertyColor</t>
+    <t>http://hl7.org/fhir/uv/emedicinal-product-info/ValueSet/propertyColor</t>
   </si>
   <si>
     <t>flavor</t>
@@ -846,13 +846,13 @@
   <si>
     <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
   &lt;coding&gt;
-    &lt;system value="http://hl7.org/fhir/uv/vulcan-eproduct-info/CodeSystem/gravitate"/&gt;
+    &lt;system value="http://hl7.org/fhir/uv/emedicinal-product-info/CodeSystem/gravitate"/&gt;
     &lt;code value="flavor"/&gt;
   &lt;/coding&gt;
 &lt;/valueCodeableConcept&gt;</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/uv/vulcan-eproduct-info/ValueSet/propertyFlavor</t>
+    <t>http://hl7.org/fhir/uv/emedicinal-product-info/ValueSet/propertyFlavor</t>
   </si>
   <si>
     <t>score</t>
@@ -866,7 +866,7 @@
 &lt;/valueCodeableConcept&gt;</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/uv/vulcan-eproduct-info/ValueSet/propertyScore</t>
+    <t>http://hl7.org/fhir/uv/emedicinal-product-info/ValueSet/propertyScore</t>
   </si>
   <si>
     <t>shape</t>
@@ -880,7 +880,7 @@
 &lt;/valueCodeableConcept&gt;</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/uv/vulcan-eproduct-info/ValueSet/propertyShape</t>
+    <t>http://hl7.org/fhir/uv/emedicinal-product-info/ValueSet/propertyShape</t>
   </si>
   <si>
     <t>surfaceform</t>
@@ -888,13 +888,13 @@
   <si>
     <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
   &lt;coding&gt;
-    &lt;system value="http://hl7.org/fhir/uv/vulcan-eproduct-info/CodeSystem/gravitate"/&gt;
+    &lt;system value="http://hl7.org/fhir/uv/emedicinal-product-info/CodeSystem/gravitate"/&gt;
     &lt;code value="surfaceform"/&gt;
   &lt;/coding&gt;
 &lt;/valueCodeableConcept&gt;</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/uv/vulcan-eproduct-info/ValueSet/VsPropertySurfaceForm</t>
+    <t>http://hl7.org/fhir/uv/emedicinal-product-info/ValueSet/VsPropertySurfaceForm</t>
   </si>
   <si>
     <t>size</t>
@@ -1722,7 +1722,7 @@
     <col min="22" max="22" width="19.03515625" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="18.859375" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="98.09765625" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="75.3515625" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="78.19921875" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="22.71875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="42.03515625" customWidth="true" bestFit="true"/>

--- a/branches/master/StructureDefinition-ManufacturedItemDefinition-uv-epi.xlsx
+++ b/branches/master/StructureDefinition-ManufacturedItemDefinition-uv-epi.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.0.0-Ballot</t>
+    <t>1.0.0-ballot</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-01T10:11:45+00:00</t>
+    <t>2022-12-02T14:16:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-ManufacturedItemDefinition-uv-epi.xlsx
+++ b/branches/master/StructureDefinition-ManufacturedItemDefinition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-02T14:16:24+00:00</t>
+    <t>2022-12-09T15:04:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-ManufacturedItemDefinition-uv-epi.xlsx
+++ b/branches/master/StructureDefinition-ManufacturedItemDefinition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-14T14:15:20+00:00</t>
+    <t>2022-12-14T18:14:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-ManufacturedItemDefinition-uv-epi.xlsx
+++ b/branches/master/StructureDefinition-ManufacturedItemDefinition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-14T18:14:38+00:00</t>
+    <t>2022-12-16T11:20:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-ManufacturedItemDefinition-uv-epi.xlsx
+++ b/branches/master/StructureDefinition-ManufacturedItemDefinition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-16T11:20:12+00:00</t>
+    <t>2022-12-16T11:59:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-ManufacturedItemDefinition-uv-epi.xlsx
+++ b/branches/master/StructureDefinition-ManufacturedItemDefinition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-16T11:59:44+00:00</t>
+    <t>2022-12-17T10:20:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -87,7 +87,7 @@
     <t>FHIR Version</t>
   </si>
   <si>
-    <t>5.0.0-ballot</t>
+    <t>5.0.0-snapshot3</t>
   </si>
   <si>
     <t>Kind</t>
@@ -442,7 +442,7 @@
 Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
   </si>
   <si>
-    <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/5.0.0-ballot/extensibility.html#modifierExtension).</t>
+    <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/5.0.0-snapshot3/extensibility.html#modifierExtension).</t>
   </si>
   <si>
     <t>DomainResource.modifierExtension</t>
@@ -516,7 +516,7 @@
     <t>required</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/identifier-use|5.0.0-ballot</t>
+    <t>http://hl7.org/fhir/ValueSet/identifier-use|5.0.0-snapshot3</t>
   </si>
   <si>
     <t>Identifier.use</t>
@@ -593,7 +593,7 @@
     <t>The portion of the identifier typically relevant to the user and which is unique within the context of the system.</t>
   </si>
   <si>
-    <t>If the value is a full URI, then the system SHALL be urn:ietf:rfc:3986.  The value's primary purpose is computational mapping.  As a result, it may be normalized for comparison purposes (e.g. removing non-significant whitespace, dashes, etc.)  A value formatted for human display can be conveyed using the [Rendered Value extension](http://hl7.org/fhir/5.0.0-ballot/extension-rendered-value.html). Identifier.value is to be treated as case sensitive unless knowledge of the Identifier.system allows the processer to be confident that non-case-sensitive processing is safe.</t>
+    <t>If the value is a full URI, then the system SHALL be urn:ietf:rfc:3986.  The value's primary purpose is computational mapping.  As a result, it may be normalized for comparison purposes (e.g. removing non-significant whitespace, dashes, etc.)  A value formatted for human display can be conveyed using the [Rendered Value extension](http://hl7.org/fhir/5.0.0-snapshot3/extension-rendered-value.html). Identifier.value is to be treated as case sensitive unless knowledge of the Identifier.system allows the processer to be confident that non-case-sensitive processing is safe.</t>
   </si>
   <si>
     <t>123456</t>
@@ -661,7 +661,7 @@
     <t>The lifecycle status of an artifact.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/publication-status|5.0.0-ballot</t>
+    <t>http://hl7.org/fhir/ValueSet/publication-status|5.0.0-snapshot3</t>
   </si>
   <si>
     <t>ManufacturedItemDefinition.name</t>
@@ -1089,7 +1089,7 @@
     <t>BCP 13 (RFCs 2045, 2046, 2047, 4288, 4289 and 2049)</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/mimetypes|5.0.0-ballot</t>
+    <t>http://hl7.org/fhir/ValueSet/mimetypes|5.0.0-snapshot3</t>
   </si>
   <si>
     <t>Attachment.contentType</t>
@@ -1221,7 +1221,7 @@
     <t>The calculated hash of the data using SHA-1. Represented using base64.</t>
   </si>
   <si>
-    <t>The hash is calculated on the data prior to base64 encoding, if the data is based64 encoded. The hash is not intended to support digital signatures. Where protection against malicious threats a digital signature should be considered, see [Provenance.signature](http://hl7.org/fhir/5.0.0-ballot/provenance-definitions.html#Provenance.signature) for mechanism to protect a resource with a digital signature.</t>
+    <t>The hash is calculated on the data prior to base64 encoding, if the data is based64 encoded. The hash is not intended to support digital signatures. Where protection against malicious threats a digital signature should be considered, see [Provenance.signature](http://hl7.org/fhir/5.0.0-snapshot3/provenance-definitions.html#Provenance.signature) for mechanism to protect a resource with a digital signature.</t>
   </si>
   <si>
     <t>Included so that applications can verify that the contents of a location have not changed due to technical failures (e.g., storage rot, transport glitch, incorrect version).</t>
@@ -1514,10 +1514,10 @@
     <t>ManufacturedItemDefinition.component.amount</t>
   </si>
   <si>
-    <t>The measurable amount of substance in this component, expressable in different ways (e.g. by mass or volume)</t>
-  </si>
-  <si>
-    <t>The measurable amount of substance in this component, expressable in different ways (e.g. by mass or volume).</t>
+    <t>The measurable amount of total quantity of all substances in the component, expressable in different ways (e.g. by mass or volume)</t>
+  </si>
+  <si>
+    <t>The measurable amount of total quantity of all substances in the component, expressable in different ways (e.g. by mass or volume).</t>
   </si>
   <si>
     <t>ManufacturedItemDefinition.component.constituent</t>
@@ -1541,19 +1541,19 @@
     <t>ManufacturedItemDefinition.component.constituent.amount</t>
   </si>
   <si>
-    <t>The measurable amount of this constituent in this component, expressable in different ways (e.g. by mass or volume)</t>
-  </si>
-  <si>
-    <t>The measurable amount of this constituent in this component, expressable in different ways (e.g. by mass or volume).</t>
+    <t>The measurable amount of the substance, expressable in different ways (e.g. by mass or volume)</t>
+  </si>
+  <si>
+    <t>The measurable amount of the substance, expressable in different ways (e.g. by mass or volume).</t>
   </si>
   <si>
     <t>ManufacturedItemDefinition.component.constituent.location</t>
   </si>
   <si>
-    <t>The type of location of the constituent within this component e.g. intragranular, blend</t>
-  </si>
-  <si>
-    <t>The type of location of the constituent within this component e.g. intragranular, blend.</t>
+    <t>The physical location of the constituent/ingredient within the component</t>
+  </si>
+  <si>
+    <t>The physical location of the constituent/ingredient within the component. Example – if the component is the bead in the capsule, then the location would be where the ingredient resides within the product part – intragranular, extra-granular, etc.</t>
   </si>
   <si>
     <t>ManufacturedItemDefinition.component.constituent.function</t>
@@ -1565,17 +1565,17 @@
     <t>The function of this constituent within the component e.g. binder.</t>
   </si>
   <si>
-    <t>ManufacturedItemDefinition.component.constituent.locationForIngredient</t>
+    <t>ManufacturedItemDefinition.component.constituent.hasIngredient</t>
   </si>
   <si>
     <t xml:space="preserve">CodeableReference(Ingredient)
 </t>
   </si>
   <si>
-    <t>An ingredient that this component is the location of in this manufactured item. The component is physically made of this ingredient (and possibly others), rather than just being a container for it</t>
-  </si>
-  <si>
-    <t>An ingredient that this component is the location for in this manufactured item. The component is physically made of this ingredient (and possibly others), rather than just being a container for it.</t>
+    <t>The ingredient that is the constituent of the given component</t>
+  </si>
+  <si>
+    <t>The ingredient that is the constituent of the given component.</t>
   </si>
   <si>
     <t>ManufacturedItemDefinition.component.property</t>
@@ -1906,7 +1906,7 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="82.00390625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="68.9453125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="65.9296875" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="22.25390625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
@@ -1936,7 +1936,7 @@
     <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="68.9453125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="61.98046875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>

--- a/branches/master/StructureDefinition-ManufacturedItemDefinition-uv-epi.xlsx
+++ b/branches/master/StructureDefinition-ManufacturedItemDefinition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-17T10:20:03+00:00</t>
+    <t>2022-12-17T12:06:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-ManufacturedItemDefinition-uv-epi.xlsx
+++ b/branches/master/StructureDefinition-ManufacturedItemDefinition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-17T12:06:32+00:00</t>
+    <t>2022-12-17T12:26:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-ManufacturedItemDefinition-uv-epi.xlsx
+++ b/branches/master/StructureDefinition-ManufacturedItemDefinition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-17T12:26:35+00:00</t>
+    <t>2022-12-19T17:15:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-ManufacturedItemDefinition-uv-epi.xlsx
+++ b/branches/master/StructureDefinition-ManufacturedItemDefinition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-19T17:15:26+00:00</t>
+    <t>2022-12-20T15:01:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-ManufacturedItemDefinition-uv-epi.xlsx
+++ b/branches/master/StructureDefinition-ManufacturedItemDefinition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-20T15:01:34+00:00</t>
+    <t>2022-12-21T15:08:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-ManufacturedItemDefinition-uv-epi.xlsx
+++ b/branches/master/StructureDefinition-ManufacturedItemDefinition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-21T15:08:00+00:00</t>
+    <t>2022-12-21T16:19:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-ManufacturedItemDefinition-uv-epi.xlsx
+++ b/branches/master/StructureDefinition-ManufacturedItemDefinition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-21T16:19:38+00:00</t>
+    <t>2022-12-22T16:01:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-ManufacturedItemDefinition-uv-epi.xlsx
+++ b/branches/master/StructureDefinition-ManufacturedItemDefinition-uv-epi.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4088" uniqueCount="501">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4088" uniqueCount="502">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-22T16:01:13+00:00</t>
+    <t>2023-01-13T20:22:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -244,6 +244,10 @@
   </si>
   <si>
     <t>*</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+</t>
   </si>
   <si>
     <t>The definition and characteristics of a medicinal manufactured item, such as a tablet or capsule, as contained in a packaged medicinal product</t>
@@ -2092,13 +2096,13 @@
         <v>74</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="L2" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="M2" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
@@ -2164,21 +2168,21 @@
         <v>74</v>
       </c>
       <c r="AK2" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AL2" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AM2" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
@@ -2189,7 +2193,7 @@
         <v>75</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H3" t="s" s="2">
         <v>74</v>
@@ -2198,19 +2202,19 @@
         <v>74</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="M3" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="N3" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="O3" s="2"/>
       <c r="P3" t="s" s="2">
@@ -2260,13 +2264,13 @@
         <v>74</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AG3" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI3" t="s" s="2">
         <v>74</v>
@@ -2286,10 +2290,10 @@
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
@@ -2300,7 +2304,7 @@
         <v>75</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H4" t="s" s="2">
         <v>74</v>
@@ -2309,16 +2313,16 @@
         <v>74</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="M4" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
@@ -2369,19 +2373,19 @@
         <v>74</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AG4" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI4" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK4" t="s" s="2">
         <v>74</v>
@@ -2395,10 +2399,10 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
@@ -2409,28 +2413,28 @@
         <v>75</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H5" t="s" s="2">
         <v>74</v>
       </c>
       <c r="I5" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="N5" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="O5" s="2"/>
       <c r="P5" t="s" s="2">
@@ -2480,19 +2484,19 @@
         <v>74</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AG5" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI5" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK5" t="s" s="2">
         <v>74</v>
@@ -2506,10 +2510,10 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
@@ -2520,7 +2524,7 @@
         <v>75</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H6" t="s" s="2">
         <v>74</v>
@@ -2532,16 +2536,16 @@
         <v>74</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="N6" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="O6" s="2"/>
       <c r="P6" t="s" s="2">
@@ -2567,13 +2571,13 @@
         <v>74</v>
       </c>
       <c r="X6" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="Y6" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="Z6" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AA6" t="s" s="2">
         <v>74</v>
@@ -2591,19 +2595,19 @@
         <v>74</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AG6" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI6" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK6" t="s" s="2">
         <v>74</v>
@@ -2617,21 +2621,21 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H7" t="s" s="2">
         <v>74</v>
@@ -2643,16 +2647,16 @@
         <v>74</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="N7" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="O7" s="2"/>
       <c r="P7" t="s" s="2">
@@ -2702,19 +2706,19 @@
         <v>74</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="AG7" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH7" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI7" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK7" t="s" s="2">
         <v>74</v>
@@ -2723,19 +2727,19 @@
         <v>74</v>
       </c>
       <c r="AM7" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
@@ -2754,16 +2758,16 @@
         <v>74</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="N8" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
@@ -2813,7 +2817,7 @@
         <v>74</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AG8" t="s" s="2">
         <v>75</v>
@@ -2834,19 +2838,19 @@
         <v>74</v>
       </c>
       <c r="AM8" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
@@ -2865,16 +2869,16 @@
         <v>74</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="N9" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="O9" s="2"/>
       <c r="P9" t="s" s="2">
@@ -2924,7 +2928,7 @@
         <v>74</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>75</v>
@@ -2936,7 +2940,7 @@
         <v>74</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AK9" t="s" s="2">
         <v>74</v>
@@ -2945,19 +2949,19 @@
         <v>74</v>
       </c>
       <c r="AM9" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
@@ -2970,25 +2974,25 @@
         <v>74</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="N10" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="O10" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="P10" t="s" s="2">
         <v>74</v>
@@ -3037,7 +3041,7 @@
         <v>74</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>75</v>
@@ -3049,7 +3053,7 @@
         <v>74</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AK10" t="s" s="2">
         <v>74</v>
@@ -3058,15 +3062,15 @@
         <v>74</v>
       </c>
       <c r="AM10" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
@@ -3074,7 +3078,7 @@
       </c>
       <c r="E11" s="2"/>
       <c r="F11" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="G11" t="s" s="2">
         <v>76</v>
@@ -3086,16 +3090,16 @@
         <v>74</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="N11" s="2"/>
       <c r="O11" s="2"/>
@@ -3146,7 +3150,7 @@
         <v>74</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>75</v>
@@ -3158,13 +3162,13 @@
         <v>74</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="AM11" t="s" s="2">
         <v>74</v>
@@ -3172,10 +3176,10 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
@@ -3186,7 +3190,7 @@
         <v>75</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H12" t="s" s="2">
         <v>74</v>
@@ -3198,13 +3202,13 @@
         <v>74</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="N12" s="2"/>
       <c r="O12" s="2"/>
@@ -3255,13 +3259,13 @@
         <v>74</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI12" t="s" s="2">
         <v>74</v>
@@ -3276,19 +3280,19 @@
         <v>74</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" t="s" s="2">
@@ -3307,16 +3311,16 @@
         <v>74</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="N13" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
@@ -3354,19 +3358,19 @@
         <v>74</v>
       </c>
       <c r="AB13" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="AC13" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="AD13" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>75</v>
@@ -3378,7 +3382,7 @@
         <v>74</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AK13" t="s" s="2">
         <v>74</v>
@@ -3387,15 +3391,15 @@
         <v>74</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -3406,31 +3410,31 @@
         <v>75</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H14" t="s" s="2">
         <v>74</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="O14" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="P14" t="s" s="2">
         <v>74</v>
@@ -3455,11 +3459,11 @@
         <v>74</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="Y14" s="2"/>
       <c r="Z14" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="AA14" t="s" s="2">
         <v>74</v>
@@ -3477,19 +3481,19 @@
         <v>74</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI14" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK14" t="s" s="2">
         <v>74</v>
@@ -3498,15 +3502,15 @@
         <v>74</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -3517,7 +3521,7 @@
         <v>75</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H15" t="s" s="2">
         <v>74</v>
@@ -3526,22 +3530,22 @@
         <v>74</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="O15" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="P15" t="s" s="2">
         <v>74</v>
@@ -3566,11 +3570,11 @@
         <v>74</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="Y15" s="2"/>
       <c r="Z15" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="AA15" t="s" s="2">
         <v>74</v>
@@ -3588,19 +3592,19 @@
         <v>74</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI15" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK15" t="s" s="2">
         <v>74</v>
@@ -3609,15 +3613,15 @@
         <v>74</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -3625,10 +3629,10 @@
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H16" t="s" s="2">
         <v>74</v>
@@ -3637,22 +3641,22 @@
         <v>74</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="O16" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="P16" t="s" s="2">
         <v>74</v>
@@ -3665,7 +3669,7 @@
         <v>74</v>
       </c>
       <c r="T16" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="U16" t="s" s="2">
         <v>74</v>
@@ -3677,11 +3681,11 @@
         <v>74</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="Y16" s="2"/>
       <c r="Z16" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="AA16" t="s" s="2">
         <v>74</v>
@@ -3699,19 +3703,19 @@
         <v>74</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI16" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK16" t="s" s="2">
         <v>74</v>
@@ -3720,15 +3724,15 @@
         <v>74</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -3736,10 +3740,10 @@
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H17" t="s" s="2">
         <v>74</v>
@@ -3748,19 +3752,19 @@
         <v>74</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="O17" s="2"/>
       <c r="P17" t="s" s="2">
@@ -3774,7 +3778,7 @@
         <v>74</v>
       </c>
       <c r="T17" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="U17" t="s" s="2">
         <v>74</v>
@@ -3810,19 +3814,19 @@
         <v>74</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI17" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK17" t="s" s="2">
         <v>74</v>
@@ -3831,15 +3835,15 @@
         <v>74</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -3850,7 +3854,7 @@
         <v>75</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H18" t="s" s="2">
         <v>74</v>
@@ -3859,16 +3863,16 @@
         <v>74</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
@@ -3919,19 +3923,19 @@
         <v>74</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI18" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK18" t="s" s="2">
         <v>74</v>
@@ -3940,15 +3944,15 @@
         <v>74</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -3959,7 +3963,7 @@
         <v>75</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H19" t="s" s="2">
         <v>74</v>
@@ -3968,19 +3972,19 @@
         <v>74</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
@@ -4030,19 +4034,19 @@
         <v>74</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI19" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK19" t="s" s="2">
         <v>74</v>
@@ -4051,15 +4055,15 @@
         <v>74</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -4067,31 +4071,31 @@
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H20" t="s" s="2">
         <v>74</v>
       </c>
       <c r="I20" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="N20" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
@@ -4117,13 +4121,13 @@
         <v>74</v>
       </c>
       <c r="X20" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="Y20" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Z20" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AA20" t="s" s="2">
         <v>74</v>
@@ -4141,22 +4145,22 @@
         <v>74</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI20" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="AL20" t="s" s="2">
         <v>74</v>
@@ -4167,10 +4171,10 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -4181,7 +4185,7 @@
         <v>75</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H21" t="s" s="2">
         <v>74</v>
@@ -4190,16 +4194,16 @@
         <v>74</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
@@ -4250,25 +4254,25 @@
         <v>74</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI21" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="AM21" t="s" s="2">
         <v>74</v>
@@ -4276,10 +4280,10 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4287,10 +4291,10 @@
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H22" t="s" s="2">
         <v>74</v>
@@ -4299,16 +4303,16 @@
         <v>74</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" s="2"/>
@@ -4335,11 +4339,11 @@
         <v>74</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="Y22" s="2"/>
       <c r="Z22" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="AA22" t="s" s="2">
         <v>74</v>
@@ -4357,22 +4361,22 @@
         <v>74</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI22" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="AL22" t="s" s="2">
         <v>74</v>
@@ -4383,10 +4387,10 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4397,7 +4401,7 @@
         <v>75</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H23" t="s" s="2">
         <v>74</v>
@@ -4406,16 +4410,16 @@
         <v>74</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" s="2"/>
@@ -4442,11 +4446,11 @@
         <v>74</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="Y23" s="2"/>
       <c r="Z23" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AA23" t="s" s="2">
         <v>74</v>
@@ -4464,22 +4468,22 @@
         <v>74</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI23" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="AL23" t="s" s="2">
         <v>74</v>
@@ -4490,10 +4494,10 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4513,16 +4517,16 @@
         <v>74</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
@@ -4573,7 +4577,7 @@
         <v>74</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>75</v>
@@ -4585,10 +4589,10 @@
         <v>74</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="AL24" t="s" s="2">
         <v>74</v>
@@ -4599,10 +4603,10 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4622,16 +4626,16 @@
         <v>74</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>
@@ -4682,7 +4686,7 @@
         <v>74</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>75</v>
@@ -4694,10 +4698,10 @@
         <v>74</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="AL25" t="s" s="2">
         <v>74</v>
@@ -4708,10 +4712,10 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4731,16 +4735,16 @@
         <v>74</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" s="2"/>
@@ -4767,13 +4771,13 @@
         <v>74</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Z26" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="AA26" t="s" s="2">
         <v>74</v>
@@ -4791,7 +4795,7 @@
         <v>74</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>75</v>
@@ -4803,10 +4807,10 @@
         <v>74</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="AL26" t="s" s="2">
         <v>74</v>
@@ -4817,10 +4821,10 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -4840,16 +4844,16 @@
         <v>74</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" s="2"/>
@@ -4888,17 +4892,17 @@
         <v>74</v>
       </c>
       <c r="AB27" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="AC27" s="2"/>
       <c r="AD27" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>75</v>
@@ -4910,10 +4914,10 @@
         <v>74</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="AL27" t="s" s="2">
         <v>74</v>
@@ -4924,10 +4928,10 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -4938,7 +4942,7 @@
         <v>75</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H28" t="s" s="2">
         <v>74</v>
@@ -4950,13 +4954,13 @@
         <v>74</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" s="2"/>
@@ -5007,13 +5011,13 @@
         <v>74</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI28" t="s" s="2">
         <v>74</v>
@@ -5028,19 +5032,19 @@
         <v>74</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
@@ -5059,16 +5063,16 @@
         <v>74</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
@@ -5118,7 +5122,7 @@
         <v>74</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>75</v>
@@ -5130,7 +5134,7 @@
         <v>74</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AK29" t="s" s="2">
         <v>74</v>
@@ -5139,19 +5143,19 @@
         <v>74</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
@@ -5164,25 +5168,25 @@
         <v>74</v>
       </c>
       <c r="I30" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="O30" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="P30" t="s" s="2">
         <v>74</v>
@@ -5231,7 +5235,7 @@
         <v>74</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>75</v>
@@ -5243,7 +5247,7 @@
         <v>74</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AK30" t="s" s="2">
         <v>74</v>
@@ -5252,15 +5256,15 @@
         <v>74</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5268,10 +5272,10 @@
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H31" t="s" s="2">
         <v>74</v>
@@ -5280,16 +5284,16 @@
         <v>74</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" s="2"/>
@@ -5316,13 +5320,13 @@
         <v>74</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Z31" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="AA31" t="s" s="2">
         <v>74</v>
@@ -5340,22 +5344,22 @@
         <v>74</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI31" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="AL31" t="s" s="2">
         <v>74</v>
@@ -5366,10 +5370,10 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5380,7 +5384,7 @@
         <v>75</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H32" t="s" s="2">
         <v>74</v>
@@ -5389,16 +5393,16 @@
         <v>74</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" s="2"/>
@@ -5449,22 +5453,22 @@
         <v>74</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI32" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="AL32" t="s" s="2">
         <v>74</v>
@@ -5475,13 +5479,13 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C33" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D33" t="s" s="2">
         <v>74</v>
@@ -5500,16 +5504,16 @@
         <v>74</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" s="2"/>
@@ -5560,7 +5564,7 @@
         <v>74</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>75</v>
@@ -5572,10 +5576,10 @@
         <v>74</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="AL33" t="s" s="2">
         <v>74</v>
@@ -5586,10 +5590,10 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5600,7 +5604,7 @@
         <v>75</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H34" t="s" s="2">
         <v>74</v>
@@ -5612,13 +5616,13 @@
         <v>74</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" s="2"/>
@@ -5669,13 +5673,13 @@
         <v>74</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI34" t="s" s="2">
         <v>74</v>
@@ -5690,19 +5694,19 @@
         <v>74</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
@@ -5721,16 +5725,16 @@
         <v>74</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
@@ -5780,7 +5784,7 @@
         <v>74</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>75</v>
@@ -5792,7 +5796,7 @@
         <v>74</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AK35" t="s" s="2">
         <v>74</v>
@@ -5801,19 +5805,19 @@
         <v>74</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
@@ -5826,25 +5830,25 @@
         <v>74</v>
       </c>
       <c r="I36" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="O36" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="P36" t="s" s="2">
         <v>74</v>
@@ -5893,7 +5897,7 @@
         <v>74</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>75</v>
@@ -5905,7 +5909,7 @@
         <v>74</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AK36" t="s" s="2">
         <v>74</v>
@@ -5914,15 +5918,15 @@
         <v>74</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -5930,10 +5934,10 @@
       </c>
       <c r="E37" s="2"/>
       <c r="F37" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H37" t="s" s="2">
         <v>74</v>
@@ -5942,16 +5946,16 @@
         <v>74</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" s="2"/>
@@ -5963,7 +5967,7 @@
         <v>74</v>
       </c>
       <c r="S37" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="T37" t="s" s="2">
         <v>74</v>
@@ -5978,13 +5982,13 @@
         <v>74</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Y37" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Z37" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="AA37" t="s" s="2">
         <v>74</v>
@@ -6002,22 +6006,22 @@
         <v>74</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI37" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="AL37" t="s" s="2">
         <v>74</v>
@@ -6028,10 +6032,10 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6042,7 +6046,7 @@
         <v>75</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H38" t="s" s="2">
         <v>74</v>
@@ -6051,16 +6055,16 @@
         <v>74</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" s="2"/>
@@ -6087,11 +6091,11 @@
         <v>74</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="Y38" s="2"/>
       <c r="Z38" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="AA38" t="s" s="2">
         <v>74</v>
@@ -6109,22 +6113,22 @@
         <v>74</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI38" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="AL38" t="s" s="2">
         <v>74</v>
@@ -6135,13 +6139,13 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C39" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="D39" t="s" s="2">
         <v>74</v>
@@ -6160,16 +6164,16 @@
         <v>74</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" s="2"/>
@@ -6220,7 +6224,7 @@
         <v>74</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>75</v>
@@ -6232,10 +6236,10 @@
         <v>74</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="AL39" t="s" s="2">
         <v>74</v>
@@ -6246,10 +6250,10 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6260,7 +6264,7 @@
         <v>75</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H40" t="s" s="2">
         <v>74</v>
@@ -6272,13 +6276,13 @@
         <v>74</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" s="2"/>
@@ -6329,13 +6333,13 @@
         <v>74</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI40" t="s" s="2">
         <v>74</v>
@@ -6350,19 +6354,19 @@
         <v>74</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E41" s="2"/>
       <c r="F41" t="s" s="2">
@@ -6381,16 +6385,16 @@
         <v>74</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
@@ -6440,7 +6444,7 @@
         <v>74</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>75</v>
@@ -6452,7 +6456,7 @@
         <v>74</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AK41" t="s" s="2">
         <v>74</v>
@@ -6461,19 +6465,19 @@
         <v>74</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
@@ -6486,25 +6490,25 @@
         <v>74</v>
       </c>
       <c r="I42" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="O42" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="P42" t="s" s="2">
         <v>74</v>
@@ -6553,7 +6557,7 @@
         <v>74</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>75</v>
@@ -6565,7 +6569,7 @@
         <v>74</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AK42" t="s" s="2">
         <v>74</v>
@@ -6574,15 +6578,15 @@
         <v>74</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -6590,10 +6594,10 @@
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H43" t="s" s="2">
         <v>74</v>
@@ -6602,16 +6606,16 @@
         <v>74</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" s="2"/>
@@ -6623,7 +6627,7 @@
         <v>74</v>
       </c>
       <c r="S43" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="T43" t="s" s="2">
         <v>74</v>
@@ -6638,13 +6642,13 @@
         <v>74</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Y43" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Z43" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="AA43" t="s" s="2">
         <v>74</v>
@@ -6662,22 +6666,22 @@
         <v>74</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="AG43" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI43" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="AL43" t="s" s="2">
         <v>74</v>
@@ -6688,10 +6692,10 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -6702,7 +6706,7 @@
         <v>75</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H44" t="s" s="2">
         <v>74</v>
@@ -6711,16 +6715,16 @@
         <v>74</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" s="2"/>
@@ -6747,11 +6751,11 @@
         <v>74</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="Y44" s="2"/>
       <c r="Z44" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="AA44" t="s" s="2">
         <v>74</v>
@@ -6769,22 +6773,22 @@
         <v>74</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI44" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="AL44" t="s" s="2">
         <v>74</v>
@@ -6795,13 +6799,13 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C45" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="D45" t="s" s="2">
         <v>74</v>
@@ -6820,16 +6824,16 @@
         <v>74</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" s="2"/>
@@ -6880,7 +6884,7 @@
         <v>74</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>75</v>
@@ -6892,10 +6896,10 @@
         <v>74</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="AL45" t="s" s="2">
         <v>74</v>
@@ -6906,10 +6910,10 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -6920,7 +6924,7 @@
         <v>75</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H46" t="s" s="2">
         <v>74</v>
@@ -6932,13 +6936,13 @@
         <v>74</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" s="2"/>
@@ -6989,13 +6993,13 @@
         <v>74</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI46" t="s" s="2">
         <v>74</v>
@@ -7010,19 +7014,19 @@
         <v>74</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E47" s="2"/>
       <c r="F47" t="s" s="2">
@@ -7041,16 +7045,16 @@
         <v>74</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="O47" s="2"/>
       <c r="P47" t="s" s="2">
@@ -7100,7 +7104,7 @@
         <v>74</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>75</v>
@@ -7112,7 +7116,7 @@
         <v>74</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AK47" t="s" s="2">
         <v>74</v>
@@ -7121,19 +7125,19 @@
         <v>74</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="E48" s="2"/>
       <c r="F48" t="s" s="2">
@@ -7146,25 +7150,25 @@
         <v>74</v>
       </c>
       <c r="I48" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="O48" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="P48" t="s" s="2">
         <v>74</v>
@@ -7213,7 +7217,7 @@
         <v>74</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>75</v>
@@ -7225,7 +7229,7 @@
         <v>74</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AK48" t="s" s="2">
         <v>74</v>
@@ -7234,15 +7238,15 @@
         <v>74</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7250,10 +7254,10 @@
       </c>
       <c r="E49" s="2"/>
       <c r="F49" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H49" t="s" s="2">
         <v>74</v>
@@ -7262,16 +7266,16 @@
         <v>74</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" s="2"/>
@@ -7283,7 +7287,7 @@
         <v>74</v>
       </c>
       <c r="S49" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="T49" t="s" s="2">
         <v>74</v>
@@ -7298,13 +7302,13 @@
         <v>74</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Y49" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Z49" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="AA49" t="s" s="2">
         <v>74</v>
@@ -7322,22 +7326,22 @@
         <v>74</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="AG49" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI49" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="AL49" t="s" s="2">
         <v>74</v>
@@ -7348,10 +7352,10 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -7362,7 +7366,7 @@
         <v>75</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H50" t="s" s="2">
         <v>74</v>
@@ -7371,16 +7375,16 @@
         <v>74</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="N50" s="2"/>
       <c r="O50" s="2"/>
@@ -7407,11 +7411,11 @@
         <v>74</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="Y50" s="2"/>
       <c r="Z50" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="AA50" t="s" s="2">
         <v>74</v>
@@ -7429,22 +7433,22 @@
         <v>74</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI50" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="AL50" t="s" s="2">
         <v>74</v>
@@ -7455,13 +7459,13 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C51" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="D51" t="s" s="2">
         <v>74</v>
@@ -7480,16 +7484,16 @@
         <v>74</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="N51" s="2"/>
       <c r="O51" s="2"/>
@@ -7540,7 +7544,7 @@
         <v>74</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>75</v>
@@ -7552,10 +7556,10 @@
         <v>74</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="AL51" t="s" s="2">
         <v>74</v>
@@ -7566,10 +7570,10 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -7580,7 +7584,7 @@
         <v>75</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H52" t="s" s="2">
         <v>74</v>
@@ -7592,13 +7596,13 @@
         <v>74</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" s="2"/>
@@ -7649,13 +7653,13 @@
         <v>74</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH52" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI52" t="s" s="2">
         <v>74</v>
@@ -7670,19 +7674,19 @@
         <v>74</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E53" s="2"/>
       <c r="F53" t="s" s="2">
@@ -7701,16 +7705,16 @@
         <v>74</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="O53" s="2"/>
       <c r="P53" t="s" s="2">
@@ -7760,7 +7764,7 @@
         <v>74</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>75</v>
@@ -7772,7 +7776,7 @@
         <v>74</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AK53" t="s" s="2">
         <v>74</v>
@@ -7781,19 +7785,19 @@
         <v>74</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="E54" s="2"/>
       <c r="F54" t="s" s="2">
@@ -7806,25 +7810,25 @@
         <v>74</v>
       </c>
       <c r="I54" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="O54" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="P54" t="s" s="2">
         <v>74</v>
@@ -7873,7 +7877,7 @@
         <v>74</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>75</v>
@@ -7885,7 +7889,7 @@
         <v>74</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AK54" t="s" s="2">
         <v>74</v>
@@ -7894,15 +7898,15 @@
         <v>74</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -7910,10 +7914,10 @@
       </c>
       <c r="E55" s="2"/>
       <c r="F55" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H55" t="s" s="2">
         <v>74</v>
@@ -7922,16 +7926,16 @@
         <v>74</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" s="2"/>
@@ -7943,7 +7947,7 @@
         <v>74</v>
       </c>
       <c r="S55" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="T55" t="s" s="2">
         <v>74</v>
@@ -7958,13 +7962,13 @@
         <v>74</v>
       </c>
       <c r="X55" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Y55" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Z55" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="AA55" t="s" s="2">
         <v>74</v>
@@ -7982,22 +7986,22 @@
         <v>74</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="AG55" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AH55" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI55" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="AL55" t="s" s="2">
         <v>74</v>
@@ -8008,10 +8012,10 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -8022,7 +8026,7 @@
         <v>75</v>
       </c>
       <c r="G56" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H56" t="s" s="2">
         <v>74</v>
@@ -8031,16 +8035,16 @@
         <v>74</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" s="2"/>
@@ -8067,11 +8071,11 @@
         <v>74</v>
       </c>
       <c r="X56" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="Y56" s="2"/>
       <c r="Z56" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="AA56" t="s" s="2">
         <v>74</v>
@@ -8089,22 +8093,22 @@
         <v>74</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH56" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI56" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="AL56" t="s" s="2">
         <v>74</v>
@@ -8115,13 +8119,13 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C57" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="D57" t="s" s="2">
         <v>74</v>
@@ -8140,16 +8144,16 @@
         <v>74</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="N57" s="2"/>
       <c r="O57" s="2"/>
@@ -8200,7 +8204,7 @@
         <v>74</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>75</v>
@@ -8212,10 +8216,10 @@
         <v>74</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="AL57" t="s" s="2">
         <v>74</v>
@@ -8226,10 +8230,10 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -8240,7 +8244,7 @@
         <v>75</v>
       </c>
       <c r="G58" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H58" t="s" s="2">
         <v>74</v>
@@ -8252,13 +8256,13 @@
         <v>74</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="N58" s="2"/>
       <c r="O58" s="2"/>
@@ -8309,13 +8313,13 @@
         <v>74</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH58" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI58" t="s" s="2">
         <v>74</v>
@@ -8330,19 +8334,19 @@
         <v>74</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E59" s="2"/>
       <c r="F59" t="s" s="2">
@@ -8361,16 +8365,16 @@
         <v>74</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="N59" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="O59" s="2"/>
       <c r="P59" t="s" s="2">
@@ -8420,7 +8424,7 @@
         <v>74</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>75</v>
@@ -8432,7 +8436,7 @@
         <v>74</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AK59" t="s" s="2">
         <v>74</v>
@@ -8441,19 +8445,19 @@
         <v>74</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="E60" s="2"/>
       <c r="F60" t="s" s="2">
@@ -8466,25 +8470,25 @@
         <v>74</v>
       </c>
       <c r="I60" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="N60" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="O60" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="P60" t="s" s="2">
         <v>74</v>
@@ -8533,7 +8537,7 @@
         <v>74</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>75</v>
@@ -8545,7 +8549,7 @@
         <v>74</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AK60" t="s" s="2">
         <v>74</v>
@@ -8554,15 +8558,15 @@
         <v>74</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -8570,10 +8574,10 @@
       </c>
       <c r="E61" s="2"/>
       <c r="F61" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="G61" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H61" t="s" s="2">
         <v>74</v>
@@ -8582,16 +8586,16 @@
         <v>74</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="N61" s="2"/>
       <c r="O61" s="2"/>
@@ -8603,7 +8607,7 @@
         <v>74</v>
       </c>
       <c r="S61" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="T61" t="s" s="2">
         <v>74</v>
@@ -8618,13 +8622,13 @@
         <v>74</v>
       </c>
       <c r="X61" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Y61" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Z61" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="AA61" t="s" s="2">
         <v>74</v>
@@ -8642,22 +8646,22 @@
         <v>74</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="AG61" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AH61" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI61" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="AL61" t="s" s="2">
         <v>74</v>
@@ -8668,10 +8672,10 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -8682,7 +8686,7 @@
         <v>75</v>
       </c>
       <c r="G62" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H62" t="s" s="2">
         <v>74</v>
@@ -8691,16 +8695,16 @@
         <v>74</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="N62" s="2"/>
       <c r="O62" s="2"/>
@@ -8727,11 +8731,11 @@
         <v>74</v>
       </c>
       <c r="X62" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="Y62" s="2"/>
       <c r="Z62" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="AA62" t="s" s="2">
         <v>74</v>
@@ -8749,22 +8753,22 @@
         <v>74</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH62" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI62" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="AL62" t="s" s="2">
         <v>74</v>
@@ -8775,13 +8779,13 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C63" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="D63" t="s" s="2">
         <v>74</v>
@@ -8800,16 +8804,16 @@
         <v>74</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="N63" s="2"/>
       <c r="O63" s="2"/>
@@ -8860,7 +8864,7 @@
         <v>74</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>75</v>
@@ -8872,10 +8876,10 @@
         <v>74</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="AL63" t="s" s="2">
         <v>74</v>
@@ -8886,10 +8890,10 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -8900,7 +8904,7 @@
         <v>75</v>
       </c>
       <c r="G64" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H64" t="s" s="2">
         <v>74</v>
@@ -8912,13 +8916,13 @@
         <v>74</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="N64" s="2"/>
       <c r="O64" s="2"/>
@@ -8969,13 +8973,13 @@
         <v>74</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH64" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI64" t="s" s="2">
         <v>74</v>
@@ -8990,19 +8994,19 @@
         <v>74</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E65" s="2"/>
       <c r="F65" t="s" s="2">
@@ -9021,16 +9025,16 @@
         <v>74</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="N65" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="O65" s="2"/>
       <c r="P65" t="s" s="2">
@@ -9080,7 +9084,7 @@
         <v>74</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>75</v>
@@ -9092,7 +9096,7 @@
         <v>74</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AK65" t="s" s="2">
         <v>74</v>
@@ -9101,19 +9105,19 @@
         <v>74</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="E66" s="2"/>
       <c r="F66" t="s" s="2">
@@ -9126,25 +9130,25 @@
         <v>74</v>
       </c>
       <c r="I66" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="N66" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="O66" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="P66" t="s" s="2">
         <v>74</v>
@@ -9193,7 +9197,7 @@
         <v>74</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>75</v>
@@ -9205,7 +9209,7 @@
         <v>74</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AK66" t="s" s="2">
         <v>74</v>
@@ -9214,15 +9218,15 @@
         <v>74</v>
       </c>
       <c r="AM66" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -9230,10 +9234,10 @@
       </c>
       <c r="E67" s="2"/>
       <c r="F67" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="G67" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H67" t="s" s="2">
         <v>74</v>
@@ -9242,16 +9246,16 @@
         <v>74</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="N67" s="2"/>
       <c r="O67" s="2"/>
@@ -9263,7 +9267,7 @@
         <v>74</v>
       </c>
       <c r="S67" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="T67" t="s" s="2">
         <v>74</v>
@@ -9278,13 +9282,13 @@
         <v>74</v>
       </c>
       <c r="X67" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Y67" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Z67" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="AA67" t="s" s="2">
         <v>74</v>
@@ -9302,22 +9306,22 @@
         <v>74</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="AG67" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AH67" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI67" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="AL67" t="s" s="2">
         <v>74</v>
@@ -9328,10 +9332,10 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -9342,7 +9346,7 @@
         <v>75</v>
       </c>
       <c r="G68" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H68" t="s" s="2">
         <v>74</v>
@@ -9351,16 +9355,16 @@
         <v>74</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="N68" s="2"/>
       <c r="O68" s="2"/>
@@ -9411,22 +9415,22 @@
         <v>74</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH68" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI68" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ68" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="AL68" t="s" s="2">
         <v>74</v>
@@ -9437,13 +9441,13 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C69" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="D69" t="s" s="2">
         <v>74</v>
@@ -9462,16 +9466,16 @@
         <v>74</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="N69" s="2"/>
       <c r="O69" s="2"/>
@@ -9522,7 +9526,7 @@
         <v>74</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>75</v>
@@ -9534,10 +9538,10 @@
         <v>74</v>
       </c>
       <c r="AJ69" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="AL69" t="s" s="2">
         <v>74</v>
@@ -9548,10 +9552,10 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -9562,7 +9566,7 @@
         <v>75</v>
       </c>
       <c r="G70" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H70" t="s" s="2">
         <v>74</v>
@@ -9574,13 +9578,13 @@
         <v>74</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="N70" s="2"/>
       <c r="O70" s="2"/>
@@ -9631,13 +9635,13 @@
         <v>74</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH70" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI70" t="s" s="2">
         <v>74</v>
@@ -9652,19 +9656,19 @@
         <v>74</v>
       </c>
       <c r="AM70" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E71" s="2"/>
       <c r="F71" t="s" s="2">
@@ -9683,16 +9687,16 @@
         <v>74</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="N71" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="O71" s="2"/>
       <c r="P71" t="s" s="2">
@@ -9742,7 +9746,7 @@
         <v>74</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>75</v>
@@ -9754,7 +9758,7 @@
         <v>74</v>
       </c>
       <c r="AJ71" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AK71" t="s" s="2">
         <v>74</v>
@@ -9763,19 +9767,19 @@
         <v>74</v>
       </c>
       <c r="AM71" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="E72" s="2"/>
       <c r="F72" t="s" s="2">
@@ -9788,25 +9792,25 @@
         <v>74</v>
       </c>
       <c r="I72" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="N72" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="O72" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="P72" t="s" s="2">
         <v>74</v>
@@ -9855,7 +9859,7 @@
         <v>74</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>75</v>
@@ -9867,7 +9871,7 @@
         <v>74</v>
       </c>
       <c r="AJ72" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AK72" t="s" s="2">
         <v>74</v>
@@ -9876,15 +9880,15 @@
         <v>74</v>
       </c>
       <c r="AM72" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -9892,10 +9896,10 @@
       </c>
       <c r="E73" s="2"/>
       <c r="F73" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="G73" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H73" t="s" s="2">
         <v>74</v>
@@ -9904,16 +9908,16 @@
         <v>74</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="N73" s="2"/>
       <c r="O73" s="2"/>
@@ -9925,7 +9929,7 @@
         <v>74</v>
       </c>
       <c r="S73" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="T73" t="s" s="2">
         <v>74</v>
@@ -9940,13 +9944,13 @@
         <v>74</v>
       </c>
       <c r="X73" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Y73" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Z73" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="AA73" t="s" s="2">
         <v>74</v>
@@ -9964,22 +9968,22 @@
         <v>74</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="AG73" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AH73" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI73" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ73" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK73" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="AL73" t="s" s="2">
         <v>74</v>
@@ -9990,10 +9994,10 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -10004,7 +10008,7 @@
         <v>75</v>
       </c>
       <c r="G74" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H74" t="s" s="2">
         <v>74</v>
@@ -10013,16 +10017,16 @@
         <v>74</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="N74" s="2"/>
       <c r="O74" s="2"/>
@@ -10073,22 +10077,22 @@
         <v>74</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH74" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI74" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ74" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK74" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="AL74" t="s" s="2">
         <v>74</v>
@@ -10099,10 +10103,10 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
@@ -10113,7 +10117,7 @@
         <v>75</v>
       </c>
       <c r="G75" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H75" t="s" s="2">
         <v>74</v>
@@ -10125,13 +10129,13 @@
         <v>74</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="N75" s="2"/>
       <c r="O75" s="2"/>
@@ -10182,13 +10186,13 @@
         <v>74</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH75" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI75" t="s" s="2">
         <v>74</v>
@@ -10203,19 +10207,19 @@
         <v>74</v>
       </c>
       <c r="AM75" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E76" s="2"/>
       <c r="F76" t="s" s="2">
@@ -10234,16 +10238,16 @@
         <v>74</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="N76" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="O76" s="2"/>
       <c r="P76" t="s" s="2">
@@ -10281,19 +10285,19 @@
         <v>74</v>
       </c>
       <c r="AB76" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="AC76" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="AD76" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>75</v>
@@ -10305,7 +10309,7 @@
         <v>74</v>
       </c>
       <c r="AJ76" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AK76" t="s" s="2">
         <v>74</v>
@@ -10314,15 +10318,15 @@
         <v>74</v>
       </c>
       <c r="AM76" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
@@ -10333,7 +10337,7 @@
         <v>75</v>
       </c>
       <c r="G77" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H77" t="s" s="2">
         <v>74</v>
@@ -10342,20 +10346,20 @@
         <v>74</v>
       </c>
       <c r="J77" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="N77" s="2"/>
       <c r="O77" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="P77" t="s" s="2">
         <v>74</v>
@@ -10368,7 +10372,7 @@
         <v>74</v>
       </c>
       <c r="T77" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="U77" t="s" s="2">
         <v>74</v>
@@ -10380,13 +10384,13 @@
         <v>74</v>
       </c>
       <c r="X77" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="Y77" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="Z77" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="AA77" t="s" s="2">
         <v>74</v>
@@ -10404,19 +10408,19 @@
         <v>74</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH77" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI77" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ77" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK77" t="s" s="2">
         <v>74</v>
@@ -10425,15 +10429,15 @@
         <v>74</v>
       </c>
       <c r="AM77" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
@@ -10444,7 +10448,7 @@
         <v>75</v>
       </c>
       <c r="G78" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H78" t="s" s="2">
         <v>74</v>
@@ -10453,20 +10457,20 @@
         <v>74</v>
       </c>
       <c r="J78" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="N78" s="2"/>
       <c r="O78" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="P78" t="s" s="2">
         <v>74</v>
@@ -10479,7 +10483,7 @@
         <v>74</v>
       </c>
       <c r="T78" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="U78" t="s" s="2">
         <v>74</v>
@@ -10491,13 +10495,13 @@
         <v>74</v>
       </c>
       <c r="X78" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="Y78" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="Z78" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AA78" t="s" s="2">
         <v>74</v>
@@ -10515,19 +10519,19 @@
         <v>74</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="AG78" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH78" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI78" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ78" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK78" t="s" s="2">
         <v>74</v>
@@ -10536,15 +10540,15 @@
         <v>74</v>
       </c>
       <c r="AM78" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
@@ -10555,7 +10559,7 @@
         <v>75</v>
       </c>
       <c r="G79" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H79" t="s" s="2">
         <v>74</v>
@@ -10567,19 +10571,19 @@
         <v>74</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="N79" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="O79" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="P79" t="s" s="2">
         <v>74</v>
@@ -10628,19 +10632,19 @@
         <v>74</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH79" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI79" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ79" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK79" t="s" s="2">
         <v>74</v>
@@ -10649,15 +10653,15 @@
         <v>74</v>
       </c>
       <c r="AM79" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
@@ -10668,7 +10672,7 @@
         <v>75</v>
       </c>
       <c r="G80" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H80" t="s" s="2">
         <v>74</v>
@@ -10677,22 +10681,22 @@
         <v>74</v>
       </c>
       <c r="J80" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="N80" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="O80" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="P80" t="s" s="2">
         <v>74</v>
@@ -10705,7 +10709,7 @@
         <v>74</v>
       </c>
       <c r="T80" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="U80" t="s" s="2">
         <v>74</v>
@@ -10741,19 +10745,19 @@
         <v>74</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="AG80" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH80" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI80" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ80" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK80" t="s" s="2">
         <v>74</v>
@@ -10762,15 +10766,15 @@
         <v>74</v>
       </c>
       <c r="AM80" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
@@ -10781,7 +10785,7 @@
         <v>75</v>
       </c>
       <c r="G81" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H81" t="s" s="2">
         <v>74</v>
@@ -10790,22 +10794,22 @@
         <v>74</v>
       </c>
       <c r="J81" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="N81" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="O81" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="P81" t="s" s="2">
         <v>74</v>
@@ -10854,19 +10858,19 @@
         <v>74</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="AG81" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH81" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI81" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ81" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK81" t="s" s="2">
         <v>74</v>
@@ -10875,15 +10879,15 @@
         <v>74</v>
       </c>
       <c r="AM81" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
@@ -10894,7 +10898,7 @@
         <v>75</v>
       </c>
       <c r="G82" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H82" t="s" s="2">
         <v>74</v>
@@ -10903,22 +10907,22 @@
         <v>74</v>
       </c>
       <c r="J82" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="N82" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="O82" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="P82" t="s" s="2">
         <v>74</v>
@@ -10967,19 +10971,19 @@
         <v>74</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="AG82" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH82" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI82" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ82" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK82" t="s" s="2">
         <v>74</v>
@@ -10988,15 +10992,15 @@
         <v>74</v>
       </c>
       <c r="AM82" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
@@ -11007,7 +11011,7 @@
         <v>75</v>
       </c>
       <c r="G83" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H83" t="s" s="2">
         <v>74</v>
@@ -11016,22 +11020,22 @@
         <v>74</v>
       </c>
       <c r="J83" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="N83" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="O83" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="P83" t="s" s="2">
         <v>74</v>
@@ -11044,7 +11048,7 @@
         <v>74</v>
       </c>
       <c r="T83" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="U83" t="s" s="2">
         <v>74</v>
@@ -11080,19 +11084,19 @@
         <v>74</v>
       </c>
       <c r="AF83" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="AG83" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH83" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI83" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ83" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK83" t="s" s="2">
         <v>74</v>
@@ -11101,15 +11105,15 @@
         <v>74</v>
       </c>
       <c r="AM83" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
@@ -11120,7 +11124,7 @@
         <v>75</v>
       </c>
       <c r="G84" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H84" t="s" s="2">
         <v>74</v>
@@ -11129,20 +11133,20 @@
         <v>74</v>
       </c>
       <c r="J84" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="N84" s="2"/>
       <c r="O84" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="P84" t="s" s="2">
         <v>74</v>
@@ -11191,19 +11195,19 @@
         <v>74</v>
       </c>
       <c r="AF84" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="AG84" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH84" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI84" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ84" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK84" t="s" s="2">
         <v>74</v>
@@ -11212,15 +11216,15 @@
         <v>74</v>
       </c>
       <c r="AM84" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
@@ -11231,7 +11235,7 @@
         <v>75</v>
       </c>
       <c r="G85" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H85" t="s" s="2">
         <v>74</v>
@@ -11243,13 +11247,13 @@
         <v>74</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="N85" s="2"/>
       <c r="O85" s="2"/>
@@ -11300,19 +11304,19 @@
         <v>74</v>
       </c>
       <c r="AF85" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="AG85" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH85" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI85" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ85" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK85" t="s" s="2">
         <v>74</v>
@@ -11321,15 +11325,15 @@
         <v>74</v>
       </c>
       <c r="AM85" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" t="s" s="2">
@@ -11340,7 +11344,7 @@
         <v>75</v>
       </c>
       <c r="G86" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H86" t="s" s="2">
         <v>74</v>
@@ -11352,13 +11356,13 @@
         <v>74</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="N86" s="2"/>
       <c r="O86" s="2"/>
@@ -11409,19 +11413,19 @@
         <v>74</v>
       </c>
       <c r="AF86" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="AG86" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH86" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI86" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ86" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK86" t="s" s="2">
         <v>74</v>
@@ -11430,15 +11434,15 @@
         <v>74</v>
       </c>
       <c r="AM86" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
@@ -11449,7 +11453,7 @@
         <v>75</v>
       </c>
       <c r="G87" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H87" t="s" s="2">
         <v>74</v>
@@ -11461,16 +11465,16 @@
         <v>74</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="N87" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="O87" s="2"/>
       <c r="P87" t="s" s="2">
@@ -11520,19 +11524,19 @@
         <v>74</v>
       </c>
       <c r="AF87" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="AG87" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH87" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI87" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ87" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK87" t="s" s="2">
         <v>74</v>
@@ -11541,15 +11545,15 @@
         <v>74</v>
       </c>
       <c r="AM87" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" t="s" s="2">
@@ -11560,7 +11564,7 @@
         <v>75</v>
       </c>
       <c r="G88" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H88" t="s" s="2">
         <v>74</v>
@@ -11572,16 +11576,16 @@
         <v>74</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="M88" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="N88" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="O88" s="2"/>
       <c r="P88" t="s" s="2">
@@ -11631,19 +11635,19 @@
         <v>74</v>
       </c>
       <c r="AF88" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="AG88" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH88" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI88" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ88" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK88" t="s" s="2">
         <v>74</v>
@@ -11652,15 +11656,15 @@
         <v>74</v>
       </c>
       <c r="AM88" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" t="s" s="2">
@@ -11671,7 +11675,7 @@
         <v>75</v>
       </c>
       <c r="G89" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H89" t="s" s="2">
         <v>74</v>
@@ -11683,13 +11687,13 @@
         <v>74</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="M89" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="N89" s="2"/>
       <c r="O89" s="2"/>
@@ -11740,19 +11744,19 @@
         <v>74</v>
       </c>
       <c r="AF89" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="AG89" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH89" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI89" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ89" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK89" t="s" s="2">
         <v>74</v>
@@ -11766,13 +11770,13 @@
     </row>
     <row r="90">
       <c r="A90" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C90" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="D90" t="s" s="2">
         <v>74</v>
@@ -11791,16 +11795,16 @@
         <v>74</v>
       </c>
       <c r="J90" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="M90" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="N90" s="2"/>
       <c r="O90" s="2"/>
@@ -11851,7 +11855,7 @@
         <v>74</v>
       </c>
       <c r="AF90" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="AG90" t="s" s="2">
         <v>75</v>
@@ -11863,10 +11867,10 @@
         <v>74</v>
       </c>
       <c r="AJ90" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK90" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="AL90" t="s" s="2">
         <v>74</v>
@@ -11877,10 +11881,10 @@
     </row>
     <row r="91">
       <c r="A91" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" t="s" s="2">
@@ -11891,7 +11895,7 @@
         <v>75</v>
       </c>
       <c r="G91" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H91" t="s" s="2">
         <v>74</v>
@@ -11903,13 +11907,13 @@
         <v>74</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="M91" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="N91" s="2"/>
       <c r="O91" s="2"/>
@@ -11960,13 +11964,13 @@
         <v>74</v>
       </c>
       <c r="AF91" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="AG91" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH91" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI91" t="s" s="2">
         <v>74</v>
@@ -11981,19 +11985,19 @@
         <v>74</v>
       </c>
       <c r="AM91" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E92" s="2"/>
       <c r="F92" t="s" s="2">
@@ -12012,16 +12016,16 @@
         <v>74</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="M92" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="N92" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="O92" s="2"/>
       <c r="P92" t="s" s="2">
@@ -12071,7 +12075,7 @@
         <v>74</v>
       </c>
       <c r="AF92" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="AG92" t="s" s="2">
         <v>75</v>
@@ -12083,7 +12087,7 @@
         <v>74</v>
       </c>
       <c r="AJ92" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AK92" t="s" s="2">
         <v>74</v>
@@ -12092,19 +12096,19 @@
         <v>74</v>
       </c>
       <c r="AM92" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="B93" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C93" s="2"/>
       <c r="D93" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="E93" s="2"/>
       <c r="F93" t="s" s="2">
@@ -12117,25 +12121,25 @@
         <v>74</v>
       </c>
       <c r="I93" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J93" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="M93" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="N93" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="O93" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="P93" t="s" s="2">
         <v>74</v>
@@ -12184,7 +12188,7 @@
         <v>74</v>
       </c>
       <c r="AF93" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="AG93" t="s" s="2">
         <v>75</v>
@@ -12196,7 +12200,7 @@
         <v>74</v>
       </c>
       <c r="AJ93" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AK93" t="s" s="2">
         <v>74</v>
@@ -12205,15 +12209,15 @@
         <v>74</v>
       </c>
       <c r="AM93" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="B94" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C94" s="2"/>
       <c r="D94" t="s" s="2">
@@ -12221,10 +12225,10 @@
       </c>
       <c r="E94" s="2"/>
       <c r="F94" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="G94" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H94" t="s" s="2">
         <v>74</v>
@@ -12233,16 +12237,16 @@
         <v>74</v>
       </c>
       <c r="J94" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K94" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="M94" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="N94" s="2"/>
       <c r="O94" s="2"/>
@@ -12254,7 +12258,7 @@
         <v>74</v>
       </c>
       <c r="S94" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="T94" t="s" s="2">
         <v>74</v>
@@ -12269,13 +12273,13 @@
         <v>74</v>
       </c>
       <c r="X94" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Y94" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Z94" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="AA94" t="s" s="2">
         <v>74</v>
@@ -12293,22 +12297,22 @@
         <v>74</v>
       </c>
       <c r="AF94" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="AG94" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AH94" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI94" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ94" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK94" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="AL94" t="s" s="2">
         <v>74</v>
@@ -12319,10 +12323,10 @@
     </row>
     <row r="95">
       <c r="A95" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="B95" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C95" s="2"/>
       <c r="D95" t="s" s="2">
@@ -12333,7 +12337,7 @@
         <v>75</v>
       </c>
       <c r="G95" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H95" t="s" s="2">
         <v>74</v>
@@ -12342,16 +12346,16 @@
         <v>74</v>
       </c>
       <c r="J95" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K95" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="M95" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="N95" s="2"/>
       <c r="O95" s="2"/>
@@ -12390,32 +12394,32 @@
         <v>74</v>
       </c>
       <c r="AB95" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="AC95" s="2"/>
       <c r="AD95" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE95" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="AF95" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="AG95" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH95" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI95" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ95" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK95" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="AL95" t="s" s="2">
         <v>74</v>
@@ -12426,13 +12430,13 @@
     </row>
     <row r="96">
       <c r="A96" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="B96" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C96" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="D96" t="s" s="2">
         <v>74</v>
@@ -12442,7 +12446,7 @@
         <v>75</v>
       </c>
       <c r="G96" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H96" t="s" s="2">
         <v>74</v>
@@ -12451,16 +12455,16 @@
         <v>74</v>
       </c>
       <c r="J96" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K96" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="L96" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="M96" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="N96" s="2"/>
       <c r="O96" s="2"/>
@@ -12511,22 +12515,22 @@
         <v>74</v>
       </c>
       <c r="AF96" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="AG96" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH96" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI96" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ96" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK96" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="AL96" t="s" s="2">
         <v>74</v>
@@ -12537,10 +12541,10 @@
     </row>
     <row r="97">
       <c r="A97" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="B97" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="C97" s="2"/>
       <c r="D97" t="s" s="2">
@@ -12551,7 +12555,7 @@
         <v>75</v>
       </c>
       <c r="G97" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H97" t="s" s="2">
         <v>74</v>
@@ -12563,13 +12567,13 @@
         <v>74</v>
       </c>
       <c r="K97" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="M97" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="N97" s="2"/>
       <c r="O97" s="2"/>
@@ -12620,13 +12624,13 @@
         <v>74</v>
       </c>
       <c r="AF97" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="AG97" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH97" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI97" t="s" s="2">
         <v>74</v>
@@ -12641,19 +12645,19 @@
         <v>74</v>
       </c>
       <c r="AM97" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="B98" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="C98" s="2"/>
       <c r="D98" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E98" s="2"/>
       <c r="F98" t="s" s="2">
@@ -12672,16 +12676,16 @@
         <v>74</v>
       </c>
       <c r="K98" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="M98" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="N98" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="O98" s="2"/>
       <c r="P98" t="s" s="2">
@@ -12719,19 +12723,19 @@
         <v>74</v>
       </c>
       <c r="AB98" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="AC98" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="AD98" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE98" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="AF98" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="AG98" t="s" s="2">
         <v>75</v>
@@ -12743,7 +12747,7 @@
         <v>74</v>
       </c>
       <c r="AJ98" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AK98" t="s" s="2">
         <v>74</v>
@@ -12752,15 +12756,15 @@
         <v>74</v>
       </c>
       <c r="AM98" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="B99" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="C99" s="2"/>
       <c r="D99" t="s" s="2">
@@ -12780,22 +12784,22 @@
         <v>74</v>
       </c>
       <c r="J99" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K99" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="M99" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="N99" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="O99" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="P99" t="s" s="2">
         <v>74</v>
@@ -12844,7 +12848,7 @@
         <v>74</v>
       </c>
       <c r="AF99" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="AG99" t="s" s="2">
         <v>75</v>
@@ -12856,7 +12860,7 @@
         <v>74</v>
       </c>
       <c r="AJ99" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK99" t="s" s="2">
         <v>74</v>
@@ -12865,15 +12869,15 @@
         <v>74</v>
       </c>
       <c r="AM99" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="B100" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="C100" s="2"/>
       <c r="D100" t="s" s="2">
@@ -12881,10 +12885,10 @@
       </c>
       <c r="E100" s="2"/>
       <c r="F100" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="G100" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H100" t="s" s="2">
         <v>74</v>
@@ -12893,22 +12897,22 @@
         <v>74</v>
       </c>
       <c r="J100" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K100" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="L100" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="M100" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="N100" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="O100" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="P100" t="s" s="2">
         <v>74</v>
@@ -12957,19 +12961,19 @@
         <v>74</v>
       </c>
       <c r="AF100" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="AG100" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH100" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI100" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ100" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK100" t="s" s="2">
         <v>74</v>
@@ -12978,15 +12982,15 @@
         <v>74</v>
       </c>
       <c r="AM100" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="B101" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="C101" s="2"/>
       <c r="D101" t="s" s="2">
@@ -13006,16 +13010,16 @@
         <v>74</v>
       </c>
       <c r="J101" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K101" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="L101" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="M101" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="N101" s="2"/>
       <c r="O101" s="2"/>
@@ -13066,7 +13070,7 @@
         <v>74</v>
       </c>
       <c r="AF101" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="AG101" t="s" s="2">
         <v>75</v>
@@ -13078,10 +13082,10 @@
         <v>74</v>
       </c>
       <c r="AJ101" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK101" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="AL101" t="s" s="2">
         <v>74</v>
@@ -13092,10 +13096,10 @@
     </row>
     <row r="102">
       <c r="A102" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="B102" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="C102" s="2"/>
       <c r="D102" t="s" s="2">
@@ -13106,7 +13110,7 @@
         <v>75</v>
       </c>
       <c r="G102" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H102" t="s" s="2">
         <v>74</v>
@@ -13118,13 +13122,13 @@
         <v>74</v>
       </c>
       <c r="K102" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="L102" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="M102" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="N102" s="2"/>
       <c r="O102" s="2"/>
@@ -13175,13 +13179,13 @@
         <v>74</v>
       </c>
       <c r="AF102" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="AG102" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH102" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI102" t="s" s="2">
         <v>74</v>
@@ -13196,19 +13200,19 @@
         <v>74</v>
       </c>
       <c r="AM102" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="B103" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C103" s="2"/>
       <c r="D103" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E103" s="2"/>
       <c r="F103" t="s" s="2">
@@ -13227,16 +13231,16 @@
         <v>74</v>
       </c>
       <c r="K103" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="L103" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="M103" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="N103" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="O103" s="2"/>
       <c r="P103" t="s" s="2">
@@ -13286,7 +13290,7 @@
         <v>74</v>
       </c>
       <c r="AF103" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="AG103" t="s" s="2">
         <v>75</v>
@@ -13298,7 +13302,7 @@
         <v>74</v>
       </c>
       <c r="AJ103" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AK103" t="s" s="2">
         <v>74</v>
@@ -13307,19 +13311,19 @@
         <v>74</v>
       </c>
       <c r="AM103" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="B104" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="C104" s="2"/>
       <c r="D104" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="E104" s="2"/>
       <c r="F104" t="s" s="2">
@@ -13332,25 +13336,25 @@
         <v>74</v>
       </c>
       <c r="I104" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J104" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K104" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="L104" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="M104" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="N104" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="O104" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="P104" t="s" s="2">
         <v>74</v>
@@ -13399,7 +13403,7 @@
         <v>74</v>
       </c>
       <c r="AF104" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="AG104" t="s" s="2">
         <v>75</v>
@@ -13411,7 +13415,7 @@
         <v>74</v>
       </c>
       <c r="AJ104" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AK104" t="s" s="2">
         <v>74</v>
@@ -13420,15 +13424,15 @@
         <v>74</v>
       </c>
       <c r="AM104" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="B105" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="C105" s="2"/>
       <c r="D105" t="s" s="2">
@@ -13436,10 +13440,10 @@
       </c>
       <c r="E105" s="2"/>
       <c r="F105" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="G105" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H105" t="s" s="2">
         <v>74</v>
@@ -13448,16 +13452,16 @@
         <v>74</v>
       </c>
       <c r="J105" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K105" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="L105" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="M105" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="N105" s="2"/>
       <c r="O105" s="2"/>
@@ -13508,22 +13512,22 @@
         <v>74</v>
       </c>
       <c r="AF105" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="AG105" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AH105" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI105" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ105" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK105" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="AL105" t="s" s="2">
         <v>74</v>
@@ -13534,10 +13538,10 @@
     </row>
     <row r="106">
       <c r="A106" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="B106" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="C106" s="2"/>
       <c r="D106" t="s" s="2">
@@ -13557,16 +13561,16 @@
         <v>74</v>
       </c>
       <c r="J106" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K106" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="L106" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="M106" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="N106" s="2"/>
       <c r="O106" s="2"/>
@@ -13617,7 +13621,7 @@
         <v>74</v>
       </c>
       <c r="AF106" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="AG106" t="s" s="2">
         <v>75</v>
@@ -13629,7 +13633,7 @@
         <v>74</v>
       </c>
       <c r="AJ106" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK106" t="s" s="2">
         <v>74</v>
@@ -13643,10 +13647,10 @@
     </row>
     <row r="107">
       <c r="A107" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="B107" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="C107" s="2"/>
       <c r="D107" t="s" s="2">
@@ -13666,16 +13670,16 @@
         <v>74</v>
       </c>
       <c r="J107" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K107" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="L107" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="M107" t="s" s="2">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="N107" s="2"/>
       <c r="O107" s="2"/>
@@ -13726,7 +13730,7 @@
         <v>74</v>
       </c>
       <c r="AF107" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="AG107" t="s" s="2">
         <v>75</v>
@@ -13738,7 +13742,7 @@
         <v>74</v>
       </c>
       <c r="AJ107" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK107" t="s" s="2">
         <v>74</v>
@@ -13752,10 +13756,10 @@
     </row>
     <row r="108">
       <c r="A108" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="B108" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="C108" s="2"/>
       <c r="D108" t="s" s="2">
@@ -13775,16 +13779,16 @@
         <v>74</v>
       </c>
       <c r="J108" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K108" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="L108" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="M108" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="N108" s="2"/>
       <c r="O108" s="2"/>
@@ -13835,7 +13839,7 @@
         <v>74</v>
       </c>
       <c r="AF108" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="AG108" t="s" s="2">
         <v>75</v>
@@ -13847,7 +13851,7 @@
         <v>74</v>
       </c>
       <c r="AJ108" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK108" t="s" s="2">
         <v>74</v>
@@ -13861,10 +13865,10 @@
     </row>
     <row r="109">
       <c r="A109" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="B109" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="C109" s="2"/>
       <c r="D109" t="s" s="2">
@@ -13875,7 +13879,7 @@
         <v>75</v>
       </c>
       <c r="G109" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H109" t="s" s="2">
         <v>74</v>
@@ -13887,13 +13891,13 @@
         <v>74</v>
       </c>
       <c r="K109" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="L109" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="M109" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="N109" s="2"/>
       <c r="O109" s="2"/>
@@ -13944,13 +13948,13 @@
         <v>74</v>
       </c>
       <c r="AF109" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="AG109" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH109" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI109" t="s" s="2">
         <v>74</v>
@@ -13965,19 +13969,19 @@
         <v>74</v>
       </c>
       <c r="AM109" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="B110" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="C110" s="2"/>
       <c r="D110" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E110" s="2"/>
       <c r="F110" t="s" s="2">
@@ -13996,16 +14000,16 @@
         <v>74</v>
       </c>
       <c r="K110" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="L110" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="M110" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="N110" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="O110" s="2"/>
       <c r="P110" t="s" s="2">
@@ -14055,7 +14059,7 @@
         <v>74</v>
       </c>
       <c r="AF110" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="AG110" t="s" s="2">
         <v>75</v>
@@ -14067,7 +14071,7 @@
         <v>74</v>
       </c>
       <c r="AJ110" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AK110" t="s" s="2">
         <v>74</v>
@@ -14076,19 +14080,19 @@
         <v>74</v>
       </c>
       <c r="AM110" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="B111" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="C111" s="2"/>
       <c r="D111" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="E111" s="2"/>
       <c r="F111" t="s" s="2">
@@ -14101,25 +14105,25 @@
         <v>74</v>
       </c>
       <c r="I111" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J111" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K111" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="L111" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="M111" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="N111" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="O111" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="P111" t="s" s="2">
         <v>74</v>
@@ -14168,7 +14172,7 @@
         <v>74</v>
       </c>
       <c r="AF111" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="AG111" t="s" s="2">
         <v>75</v>
@@ -14180,7 +14184,7 @@
         <v>74</v>
       </c>
       <c r="AJ111" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AK111" t="s" s="2">
         <v>74</v>
@@ -14189,15 +14193,15 @@
         <v>74</v>
       </c>
       <c r="AM111" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="B112" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="C112" s="2"/>
       <c r="D112" t="s" s="2">
@@ -14217,16 +14221,16 @@
         <v>74</v>
       </c>
       <c r="J112" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K112" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="L112" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="M112" t="s" s="2">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="N112" s="2"/>
       <c r="O112" s="2"/>
@@ -14277,7 +14281,7 @@
         <v>74</v>
       </c>
       <c r="AF112" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="AG112" t="s" s="2">
         <v>75</v>
@@ -14289,7 +14293,7 @@
         <v>74</v>
       </c>
       <c r="AJ112" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK112" t="s" s="2">
         <v>74</v>
@@ -14303,10 +14307,10 @@
     </row>
     <row r="113">
       <c r="A113" t="s" s="2">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="B113" t="s" s="2">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="C113" s="2"/>
       <c r="D113" t="s" s="2">
@@ -14326,16 +14330,16 @@
         <v>74</v>
       </c>
       <c r="J113" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K113" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="L113" t="s" s="2">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="M113" t="s" s="2">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="N113" s="2"/>
       <c r="O113" s="2"/>
@@ -14386,7 +14390,7 @@
         <v>74</v>
       </c>
       <c r="AF113" t="s" s="2">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="AG113" t="s" s="2">
         <v>75</v>
@@ -14398,7 +14402,7 @@
         <v>74</v>
       </c>
       <c r="AJ113" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK113" t="s" s="2">
         <v>74</v>
@@ -14412,10 +14416,10 @@
     </row>
     <row r="114">
       <c r="A114" t="s" s="2">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="B114" t="s" s="2">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="C114" s="2"/>
       <c r="D114" t="s" s="2">
@@ -14435,16 +14439,16 @@
         <v>74</v>
       </c>
       <c r="J114" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K114" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="L114" t="s" s="2">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="M114" t="s" s="2">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="N114" s="2"/>
       <c r="O114" s="2"/>
@@ -14495,7 +14499,7 @@
         <v>74</v>
       </c>
       <c r="AF114" t="s" s="2">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="AG114" t="s" s="2">
         <v>75</v>
@@ -14507,7 +14511,7 @@
         <v>74</v>
       </c>
       <c r="AJ114" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK114" t="s" s="2">
         <v>74</v>
@@ -14521,10 +14525,10 @@
     </row>
     <row r="115">
       <c r="A115" t="s" s="2">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="B115" t="s" s="2">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="C115" s="2"/>
       <c r="D115" t="s" s="2">
@@ -14544,16 +14548,16 @@
         <v>74</v>
       </c>
       <c r="J115" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K115" t="s" s="2">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="L115" t="s" s="2">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="M115" t="s" s="2">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="N115" s="2"/>
       <c r="O115" s="2"/>
@@ -14604,7 +14608,7 @@
         <v>74</v>
       </c>
       <c r="AF115" t="s" s="2">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="AG115" t="s" s="2">
         <v>75</v>
@@ -14616,7 +14620,7 @@
         <v>74</v>
       </c>
       <c r="AJ115" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK115" t="s" s="2">
         <v>74</v>
@@ -14630,10 +14634,10 @@
     </row>
     <row r="116">
       <c r="A116" t="s" s="2">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="B116" t="s" s="2">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="C116" s="2"/>
       <c r="D116" t="s" s="2">
@@ -14653,16 +14657,16 @@
         <v>74</v>
       </c>
       <c r="J116" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K116" t="s" s="2">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="L116" t="s" s="2">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="M116" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="N116" s="2"/>
       <c r="O116" s="2"/>
@@ -14713,7 +14717,7 @@
         <v>74</v>
       </c>
       <c r="AF116" t="s" s="2">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="AG116" t="s" s="2">
         <v>75</v>
@@ -14725,7 +14729,7 @@
         <v>74</v>
       </c>
       <c r="AJ116" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK116" t="s" s="2">
         <v>74</v>
@@ -14739,10 +14743,10 @@
     </row>
     <row r="117">
       <c r="A117" t="s" s="2">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="B117" t="s" s="2">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="C117" s="2"/>
       <c r="D117" t="s" s="2">
@@ -14762,16 +14766,16 @@
         <v>74</v>
       </c>
       <c r="J117" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K117" t="s" s="2">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="L117" t="s" s="2">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="M117" t="s" s="2">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="N117" s="2"/>
       <c r="O117" s="2"/>
@@ -14822,7 +14826,7 @@
         <v>74</v>
       </c>
       <c r="AF117" t="s" s="2">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="AG117" t="s" s="2">
         <v>75</v>
@@ -14834,7 +14838,7 @@
         <v>74</v>
       </c>
       <c r="AJ117" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK117" t="s" s="2">
         <v>74</v>

--- a/branches/master/StructureDefinition-ManufacturedItemDefinition-uv-epi.xlsx
+++ b/branches/master/StructureDefinition-ManufacturedItemDefinition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-13T20:22:01+00:00</t>
+    <t>2023-01-14T01:22:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-ManufacturedItemDefinition-uv-epi.xlsx
+++ b/branches/master/StructureDefinition-ManufacturedItemDefinition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-14T01:22:25+00:00</t>
+    <t>2023-01-15T00:37:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-ManufacturedItemDefinition-uv-epi.xlsx
+++ b/branches/master/StructureDefinition-ManufacturedItemDefinition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-15T00:37:24+00:00</t>
+    <t>2023-01-20T18:45:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-ManufacturedItemDefinition-uv-epi.xlsx
+++ b/branches/master/StructureDefinition-ManufacturedItemDefinition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-20T18:45:44+00:00</t>
+    <t>2023-01-21T15:50:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-ManufacturedItemDefinition-uv-epi.xlsx
+++ b/branches/master/StructureDefinition-ManufacturedItemDefinition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-21T15:50:48+00:00</t>
+    <t>2023-02-28T21:05:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-ManufacturedItemDefinition-uv-epi.xlsx
+++ b/branches/master/StructureDefinition-ManufacturedItemDefinition-uv-epi.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4088" uniqueCount="502">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4090" uniqueCount="510">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-28T21:05:48+00:00</t>
+    <t>2023-04-05T09:48:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -87,7 +87,7 @@
     <t>FHIR Version</t>
   </si>
   <si>
-    <t>5.0.0-snapshot3</t>
+    <t>5.0.0</t>
   </si>
   <si>
     <t>Kind</t>
@@ -228,10 +228,10 @@
     <t>Constraint(s)</t>
   </si>
   <si>
+    <t>Mapping: FiveWs Pattern Mapping</t>
+  </si>
+  <si>
     <t>Mapping: IDMP Mapping</t>
-  </si>
-  <si>
-    <t>Mapping: FiveWs Pattern Mapping</t>
   </si>
   <si>
     <t>Mapping: RIM Mapping</t>
@@ -256,13 +256,13 @@
     <t>The definition and characteristics of a medicinal manufactured item, such as a tablet or capsule, as contained in a packaged medicinal product.</t>
   </si>
   <si>
+    <t>administrative.medication</t>
+  </si>
+  <si>
     <t>Manufactured Item</t>
   </si>
   <si>
-    <t>administrative.medication</t>
-  </si>
-  <si>
-    <t>Entity. Role, or Act</t>
+    <t>Entity, Role, or Act</t>
   </si>
   <si>
     <t>ManufacturedItemDefinition.id</t>
@@ -323,7 +323,7 @@
     <t>A reference to a set of rules that were followed when the resource was constructed, and which must be understood when processing the content. Often, this is a reference to an implementation guide that defines the special rules along with other profiles etc.</t>
   </si>
   <si>
-    <t>Asserting this rule set restricts the content to be only understood by a limited set of trading partners. This inherently limits the usefulness of the data in the long term. However, the existing health eco-system is highly fractured, and not yet ready to define, collect, and exchange data in a generally computable sense. Wherever possible, implementers and/or specification writers should avoid using this element. Often, when used, the URL is a reference to an implementation guide that defines these special rules as part of it's narrative along with other profiles, value sets, etc.</t>
+    <t>Asserting this rule set restricts the content to be only understood by a limited set of trading partners. This inherently limits the usefulness of the data in the long term. However, the existing health eco-system is highly fractured, and not yet ready to define, collect, and exchange data in a generally computable sense. Wherever possible, implementers and/or specification writers should avoid using this element. Often, when used, the URL is a reference to an implementation guide that defines these special rules as part of its narrative along with other profiles, value sets, etc.</t>
   </si>
   <si>
     <t>Resource.implicitRules</t>
@@ -345,13 +345,13 @@
     <t>Language is provided to support indexing and accessibility (typically, services such as text to speech use the language tag). The html language tag in the narrative applies  to the narrative. The language tag on the resource may be used to specify the language of other presentations generated from the data in the resource. Not all the content has to be in the base language. The Resource.language should not be assumed to apply to the narrative automatically. If a language is specified, it should it also be specified on the div element in the html (see rules in HTML5 for information about the relationship between xml:lang and the html lang attribute).</t>
   </si>
   <si>
-    <t>preferred</t>
-  </si>
-  <si>
-    <t>IETF language tag</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/languages</t>
+    <t>required</t>
+  </si>
+  <si>
+    <t>IETF language tag for a human language</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/all-languages|5.0.0</t>
   </si>
   <si>
     <t>Resource.language</t>
@@ -380,6 +380,10 @@
     <t>DomainResource.text</t>
   </si>
   <si>
+    <t xml:space="preserve">dom-6
+</t>
+  </si>
+  <si>
     <t>Act.text?</t>
   </si>
   <si>
@@ -406,6 +410,10 @@
     <t>DomainResource.contained</t>
   </si>
   <si>
+    <t>dom-2
+dom-4dom-3dom-5</t>
+  </si>
+  <si>
     <t>N/A</t>
   </si>
   <si>
@@ -423,7 +431,7 @@
     <t>Additional content defined by implementations</t>
   </si>
   <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the resource. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+    <t>May be used to represent additional information that is not part of the basic definition of the resource. To make the use of extensions safe and managable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
   </si>
   <si>
     <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
@@ -442,11 +450,11 @@
     <t>Extensions that cannot be ignored</t>
   </si>
   <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the resource and that modifies the understanding of the element that contains it and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
+    <t>May be used to represent additional information that is not part of the basic definition of the resource and that modifies the understanding of the element that contains it and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and managable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
 Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
   </si>
   <si>
-    <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/5.0.0-snapshot3/extensibility.html#modifierExtension).</t>
+    <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R5/extensibility.html#modifierExtension).</t>
   </si>
   <si>
     <t>DomainResource.modifierExtension</t>
@@ -465,12 +473,12 @@
     <t>Unique identifier.</t>
   </si>
   <si>
+    <t>FiveWs.class</t>
+  </si>
+  <si>
     <t>n/a</t>
   </si>
   <si>
-    <t>FiveWs.class</t>
-  </si>
-  <si>
     <t>ManufacturedItemDefinition.identifier.id</t>
   </si>
   <si>
@@ -483,10 +491,14 @@
     <t>Element.id</t>
   </si>
   <si>
+    <t xml:space="preserve">ele-1
+</t>
+  </si>
+  <si>
     <t>ManufacturedItemDefinition.identifier.extension</t>
   </si>
   <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and managable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
   </si>
   <si>
     <t xml:space="preserve">value:url}
@@ -517,10 +529,10 @@
     <t>Allows the appropriate identifier for a particular context of use to be selected from among a set of identifiers.</t>
   </si>
   <si>
-    <t>required</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/identifier-use|5.0.0-snapshot3</t>
+    <t>Identifies the purpose for this identifier, if known .</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/identifier-use|5.0.0</t>
   </si>
   <si>
     <t>Identifier.use</t>
@@ -551,6 +563,9 @@
     <t>extensible</t>
   </si>
   <si>
+    <t>A coded type for an identifier that can be used to determine which identifier to use for a specific purpose.</t>
+  </si>
+  <si>
     <t>http://hl7.org/fhir/ValueSet/identifier-type</t>
   </si>
   <si>
@@ -563,7 +578,7 @@
     <t>The namespace for the identifier value</t>
   </si>
   <si>
-    <t>Establishes the namespace for the value - that is, a absolute URL that describes a set values that are unique.</t>
+    <t>Establishes the namespace for the value - that is, an absolute URL that describes a set values that are unique.</t>
   </si>
   <si>
     <t>Identifier.system is always case sensitive.</t>
@@ -597,13 +612,17 @@
     <t>The portion of the identifier typically relevant to the user and which is unique within the context of the system.</t>
   </si>
   <si>
-    <t>If the value is a full URI, then the system SHALL be urn:ietf:rfc:3986.  The value's primary purpose is computational mapping.  As a result, it may be normalized for comparison purposes (e.g. removing non-significant whitespace, dashes, etc.)  A value formatted for human display can be conveyed using the [Rendered Value extension](http://hl7.org/fhir/5.0.0-snapshot3/extension-rendered-value.html). Identifier.value is to be treated as case sensitive unless knowledge of the Identifier.system allows the processer to be confident that non-case-sensitive processing is safe.</t>
+    <t>If the value is a full URI, then the system SHALL be urn:ietf:rfc:3986.  The value's primary purpose is computational mapping.  As a result, it may be normalized for comparison purposes (e.g. removing non-significant whitespace, dashes, etc.)  A value formatted for human display can be conveyed using the [http://hl7.org/fhir/StructureDefinition/rendered-value](http://hl7.org/fhir/extensions/StructureDefinition-rendered-value.html)). Identifier.value is to be treated as case sensitive unless knowledge of the Identifier.system allows the processer to be confident that non-case-sensitive processing is safe.</t>
   </si>
   <si>
     <t>123456</t>
   </si>
   <si>
     <t>Identifier.value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ident-1
+</t>
   </si>
   <si>
     <t>II.extension or II.root if system indicates OID or GUID (Or Role.id.extension or root)</t>
@@ -665,7 +684,7 @@
     <t>The lifecycle status of an artifact.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/publication-status|5.0.0-snapshot3</t>
+    <t>http://hl7.org/fhir/ValueSet/publication-status|5.0.0</t>
   </si>
   <si>
     <t>ManufacturedItemDefinition.name</t>
@@ -686,6 +705,9 @@
     <t>Dose form as manufactured and before any transformation into the pharmaceutical product.</t>
   </si>
   <si>
+    <t>preferred</t>
+  </si>
+  <si>
     <t>http://hl7.org/fhir/uv/emedicinal-product-info/ValueSet/PharmaceuticalDoseForm</t>
   </si>
   <si>
@@ -695,10 +717,10 @@
     <t>ManufacturedItemDefinition.unitOfPresentation</t>
   </si>
   <si>
-    <t>The “real world” units in which the quantity of the item is described</t>
-  </si>
-  <si>
-    <t>The “real world” units in which the quantity of the manufactured item is described.</t>
+    <t>The “real-world” units in which the quantity of the item is described</t>
+  </si>
+  <si>
+    <t>The “real-world” units in which the quantity of the manufactured item is described.</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/uv/emedicinal-product-info/ValueSet/unitofPresentation</t>
@@ -793,7 +815,7 @@
     <t>Extensions that cannot be ignored even if unrecognized</t>
   </si>
   <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element and that modifies the understanding of the element in which it is contained and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
+    <t>May be used to represent additional information that is not part of the basic definition of the element and that modifies the understanding of the element in which it is contained and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and managable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
 Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
   </si>
   <si>
@@ -822,7 +844,7 @@
   </si>
   <si>
     <t>CodeableConcept
-QuantitydatebooleanAttachment</t>
+QuantitydatebooleanmarkdownAttachmentReference(Binary)</t>
   </si>
   <si>
     <t>A value for the characteristic</t>
@@ -1093,12 +1115,16 @@
     <t>BCP 13 (RFCs 2045, 2046, 2047, 4288, 4289 and 2049)</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/mimetypes|5.0.0-snapshot3</t>
+    <t>http://hl7.org/fhir/ValueSet/mimetypes|5.0.0</t>
   </si>
   <si>
     <t>Attachment.contentType</t>
   </si>
   <si>
+    <t xml:space="preserve">att-1
+</t>
+  </si>
+  <si>
     <t>./mediaType, ./charset</t>
   </si>
   <si>
@@ -1118,6 +1144,9 @@
   </si>
   <si>
     <t>en-AU</t>
+  </si>
+  <si>
+    <t>IETF language tag for a human language.</t>
   </si>
   <si>
     <t>Attachment.language</t>
@@ -1225,7 +1254,7 @@
     <t>The calculated hash of the data using SHA-1. Represented using base64.</t>
   </si>
   <si>
-    <t>The hash is calculated on the data prior to base64 encoding, if the data is based64 encoded. The hash is not intended to support digital signatures. Where protection against malicious threats a digital signature should be considered, see [Provenance.signature](http://hl7.org/fhir/5.0.0-snapshot3/provenance-definitions.html#Provenance.signature) for mechanism to protect a resource with a digital signature.</t>
+    <t>The hash is calculated on the data prior to base64 encoding, if the data is based64 encoded. The hash is not intended to support digital signatures. Where protection against malicious threats a digital signature should be considered, see [Provenance.signature](http://hl7.org/fhir/R5/provenance-definitions.html#Provenance.signature) for mechanism to protect a resource with a digital signature.</t>
   </si>
   <si>
     <t>Included so that applications can verify that the contents of a location have not changed due to technical failures (e.g., storage rot, transport glitch, incorrect version).</t>
@@ -1527,10 +1556,10 @@
     <t>ManufacturedItemDefinition.component.constituent</t>
   </si>
   <si>
-    <t>A reference to an constituent of the manufactured item as a whole, linked here so that its component location within the item can be indicated. This not where the item's ingredient are primarily stated (for which see Ingredient.for or ManufacturedItemDefinition.ingredient)</t>
-  </si>
-  <si>
-    <t>A reference to an constituent of the manufactured item as a whole, linked here so that its component location within the item can be indicated. This not where the item's ingredient are primarily stated (for which see Ingredient.for or ManufacturedItemDefinition.ingredient).</t>
+    <t>A reference to a constituent of the manufactured item as a whole, linked here so that its component location within the item can be indicated. This not where the item's ingredient are primarily stated (for which see Ingredient.for or ManufacturedItemDefinition.ingredient)</t>
+  </si>
+  <si>
+    <t>A reference to a constituent of the manufactured item as a whole, linked here so that its component location within the item can be indicated. This not where the item's ingredient are primarily stated (for which see Ingredient.for or ManufacturedItemDefinition.ingredient).</t>
   </si>
   <si>
     <t>ManufacturedItemDefinition.component.constituent.id</t>
@@ -1933,7 +1962,7 @@
     <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="98.09765625" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="98.375" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="78.19921875" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
@@ -1944,8 +1973,8 @@
     <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="61.49609375" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="36.91796875" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="36.91796875" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="61.49609375" customWidth="true" bestFit="true"/>
     <col min="39" max="39" width="103.94140625" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
@@ -2715,7 +2744,7 @@
         <v>84</v>
       </c>
       <c r="AI7" t="s" s="2">
-        <v>74</v>
+        <v>119</v>
       </c>
       <c r="AJ7" t="s" s="2">
         <v>96</v>
@@ -2727,19 +2756,19 @@
         <v>74</v>
       </c>
       <c r="AM7" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
@@ -2758,16 +2787,16 @@
         <v>74</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="N8" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
@@ -2817,7 +2846,7 @@
         <v>74</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AG8" t="s" s="2">
         <v>75</v>
@@ -2826,7 +2855,7 @@
         <v>76</v>
       </c>
       <c r="AI8" t="s" s="2">
-        <v>74</v>
+        <v>128</v>
       </c>
       <c r="AJ8" t="s" s="2">
         <v>74</v>
@@ -2838,19 +2867,19 @@
         <v>74</v>
       </c>
       <c r="AM8" t="s" s="2">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
@@ -2869,16 +2898,16 @@
         <v>74</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="N9" t="s" s="2">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="O9" s="2"/>
       <c r="P9" t="s" s="2">
@@ -2928,7 +2957,7 @@
         <v>74</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>75</v>
@@ -2940,7 +2969,7 @@
         <v>74</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="AK9" t="s" s="2">
         <v>74</v>
@@ -2949,19 +2978,19 @@
         <v>74</v>
       </c>
       <c r="AM9" t="s" s="2">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
@@ -2980,19 +3009,19 @@
         <v>85</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="N10" t="s" s="2">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="O10" t="s" s="2">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="P10" t="s" s="2">
         <v>74</v>
@@ -3041,7 +3070,7 @@
         <v>74</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>75</v>
@@ -3053,7 +3082,7 @@
         <v>74</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="AK10" t="s" s="2">
         <v>74</v>
@@ -3062,15 +3091,15 @@
         <v>74</v>
       </c>
       <c r="AM10" t="s" s="2">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
@@ -3093,13 +3122,13 @@
         <v>85</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="N11" s="2"/>
       <c r="O11" s="2"/>
@@ -3150,7 +3179,7 @@
         <v>74</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>75</v>
@@ -3165,10 +3194,10 @@
         <v>96</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="AM11" t="s" s="2">
         <v>74</v>
@@ -3176,10 +3205,10 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
@@ -3205,10 +3234,10 @@
         <v>86</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="N12" s="2"/>
       <c r="O12" s="2"/>
@@ -3259,7 +3288,7 @@
         <v>74</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>75</v>
@@ -3268,7 +3297,7 @@
         <v>84</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>74</v>
+        <v>153</v>
       </c>
       <c r="AJ12" t="s" s="2">
         <v>74</v>
@@ -3280,19 +3309,19 @@
         <v>74</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>145</v>
+        <v>148</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" t="s" s="2">
@@ -3311,16 +3340,16 @@
         <v>74</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="N13" t="s" s="2">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
@@ -3358,19 +3387,19 @@
         <v>74</v>
       </c>
       <c r="AB13" t="s" s="2">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="AC13" t="s" s="2">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="AD13" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>75</v>
@@ -3382,7 +3411,7 @@
         <v>74</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="AK13" t="s" s="2">
         <v>74</v>
@@ -3391,15 +3420,15 @@
         <v>74</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>145</v>
+        <v>148</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -3425,16 +3454,16 @@
         <v>104</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="O14" t="s" s="2">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="P14" t="s" s="2">
         <v>74</v>
@@ -3459,11 +3488,13 @@
         <v>74</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>162</v>
-      </c>
-      <c r="Y14" s="2"/>
+        <v>108</v>
+      </c>
+      <c r="Y14" t="s" s="2">
+        <v>165</v>
+      </c>
       <c r="Z14" t="s" s="2">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="AA14" t="s" s="2">
         <v>74</v>
@@ -3481,7 +3512,7 @@
         <v>74</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>75</v>
@@ -3502,15 +3533,15 @@
         <v>74</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>165</v>
+        <v>168</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -3533,19 +3564,19 @@
         <v>85</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="O15" t="s" s="2">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="P15" t="s" s="2">
         <v>74</v>
@@ -3570,11 +3601,13 @@
         <v>74</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>172</v>
-      </c>
-      <c r="Y15" s="2"/>
+        <v>175</v>
+      </c>
+      <c r="Y15" t="s" s="2">
+        <v>176</v>
+      </c>
       <c r="Z15" t="s" s="2">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="AA15" t="s" s="2">
         <v>74</v>
@@ -3592,7 +3625,7 @@
         <v>74</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>75</v>
@@ -3613,15 +3646,15 @@
         <v>74</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>165</v>
+        <v>168</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -3647,16 +3680,16 @@
         <v>98</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="O16" t="s" s="2">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="P16" t="s" s="2">
         <v>74</v>
@@ -3669,7 +3702,7 @@
         <v>74</v>
       </c>
       <c r="T16" t="s" s="2">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="U16" t="s" s="2">
         <v>74</v>
@@ -3681,11 +3714,11 @@
         <v>74</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="Y16" s="2"/>
       <c r="Z16" t="s" s="2">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="AA16" t="s" s="2">
         <v>74</v>
@@ -3703,7 +3736,7 @@
         <v>74</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>75</v>
@@ -3724,15 +3757,15 @@
         <v>74</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>183</v>
+        <v>187</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -3755,16 +3788,16 @@
         <v>85</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="O17" s="2"/>
       <c r="P17" t="s" s="2">
@@ -3778,7 +3811,7 @@
         <v>74</v>
       </c>
       <c r="T17" t="s" s="2">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="U17" t="s" s="2">
         <v>74</v>
@@ -3814,7 +3847,7 @@
         <v>74</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>75</v>
@@ -3823,7 +3856,7 @@
         <v>84</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>74</v>
+        <v>195</v>
       </c>
       <c r="AJ17" t="s" s="2">
         <v>96</v>
@@ -3835,15 +3868,15 @@
         <v>74</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>191</v>
+        <v>196</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -3866,13 +3899,13 @@
         <v>85</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
@@ -3923,7 +3956,7 @@
         <v>74</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>75</v>
@@ -3944,15 +3977,15 @@
         <v>74</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>197</v>
+        <v>202</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -3975,16 +4008,16 @@
         <v>85</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
@@ -4034,7 +4067,7 @@
         <v>74</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>75</v>
@@ -4055,15 +4088,15 @@
         <v>74</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>204</v>
+        <v>209</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -4089,13 +4122,13 @@
         <v>104</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="N20" t="s" s="2">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
@@ -4121,31 +4154,31 @@
         <v>74</v>
       </c>
       <c r="X20" t="s" s="2">
-        <v>162</v>
+        <v>108</v>
       </c>
       <c r="Y20" t="s" s="2">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="Z20" t="s" s="2">
+        <v>215</v>
+      </c>
+      <c r="AA20" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB20" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC20" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD20" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE20" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AF20" t="s" s="2">
         <v>210</v>
-      </c>
-      <c r="AA20" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB20" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC20" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD20" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE20" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AF20" t="s" s="2">
-        <v>205</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>84</v>
@@ -4160,10 +4193,10 @@
         <v>96</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>145</v>
+        <v>74</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>74</v>
+        <v>148</v>
       </c>
       <c r="AM20" t="s" s="2">
         <v>74</v>
@@ -4171,10 +4204,10 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -4197,13 +4230,13 @@
         <v>85</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
@@ -4254,7 +4287,7 @@
         <v>74</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>75</v>
@@ -4269,10 +4302,10 @@
         <v>96</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="AM21" t="s" s="2">
         <v>74</v>
@@ -4280,10 +4313,10 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4306,13 +4339,13 @@
         <v>85</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" s="2"/>
@@ -4339,11 +4372,11 @@
         <v>74</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>108</v>
+        <v>222</v>
       </c>
       <c r="Y22" s="2"/>
       <c r="Z22" t="s" s="2">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="AA22" t="s" s="2">
         <v>74</v>
@@ -4361,7 +4394,7 @@
         <v>74</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>84</v>
@@ -4376,10 +4409,10 @@
         <v>96</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>218</v>
+        <v>74</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>74</v>
+        <v>224</v>
       </c>
       <c r="AM22" t="s" s="2">
         <v>74</v>
@@ -4387,10 +4420,10 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4413,13 +4446,13 @@
         <v>85</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>220</v>
+        <v>226</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>221</v>
+        <v>227</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" s="2"/>
@@ -4446,11 +4479,11 @@
         <v>74</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>108</v>
+        <v>222</v>
       </c>
       <c r="Y23" s="2"/>
       <c r="Z23" t="s" s="2">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="AA23" t="s" s="2">
         <v>74</v>
@@ -4468,7 +4501,7 @@
         <v>74</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>75</v>
@@ -4483,10 +4516,10 @@
         <v>96</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>223</v>
+        <v>74</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>74</v>
+        <v>229</v>
       </c>
       <c r="AM23" t="s" s="2">
         <v>74</v>
@@ -4494,10 +4527,10 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4520,13 +4553,13 @@
         <v>85</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>227</v>
+        <v>233</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
@@ -4577,7 +4610,7 @@
         <v>74</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>75</v>
@@ -4592,10 +4625,10 @@
         <v>96</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>228</v>
+        <v>74</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>74</v>
+        <v>234</v>
       </c>
       <c r="AM24" t="s" s="2">
         <v>74</v>
@@ -4603,10 +4636,10 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4629,13 +4662,13 @@
         <v>85</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>
@@ -4686,7 +4719,7 @@
         <v>74</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>75</v>
@@ -4701,10 +4734,10 @@
         <v>96</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>145</v>
+        <v>74</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>74</v>
+        <v>148</v>
       </c>
       <c r="AM25" t="s" s="2">
         <v>74</v>
@@ -4712,10 +4745,10 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4738,13 +4771,13 @@
         <v>85</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" s="2"/>
@@ -4771,13 +4804,13 @@
         <v>74</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>236</v>
+        <v>242</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="Z26" t="s" s="2">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="AA26" t="s" s="2">
         <v>74</v>
@@ -4795,7 +4828,7 @@
         <v>74</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>75</v>
@@ -4810,10 +4843,10 @@
         <v>96</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>239</v>
+        <v>74</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>74</v>
+        <v>245</v>
       </c>
       <c r="AM26" t="s" s="2">
         <v>74</v>
@@ -4821,10 +4854,10 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -4847,13 +4880,13 @@
         <v>85</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>242</v>
+        <v>248</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>243</v>
+        <v>249</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" s="2"/>
@@ -4892,17 +4925,17 @@
         <v>74</v>
       </c>
       <c r="AB27" t="s" s="2">
-        <v>244</v>
+        <v>250</v>
       </c>
       <c r="AC27" s="2"/>
       <c r="AD27" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>75</v>
@@ -4917,10 +4950,10 @@
         <v>96</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>245</v>
+        <v>74</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>74</v>
+        <v>251</v>
       </c>
       <c r="AM27" t="s" s="2">
         <v>74</v>
@@ -4928,10 +4961,10 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -4954,13 +4987,13 @@
         <v>74</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" s="2"/>
@@ -5011,7 +5044,7 @@
         <v>74</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>75</v>
@@ -5020,7 +5053,7 @@
         <v>84</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>74</v>
+        <v>153</v>
       </c>
       <c r="AJ28" t="s" s="2">
         <v>74</v>
@@ -5032,19 +5065,19 @@
         <v>74</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>145</v>
+        <v>148</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
@@ -5063,16 +5096,16 @@
         <v>74</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
@@ -5122,7 +5155,7 @@
         <v>74</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>75</v>
@@ -5134,7 +5167,7 @@
         <v>74</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="AK29" t="s" s="2">
         <v>74</v>
@@ -5143,19 +5176,19 @@
         <v>74</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>145</v>
+        <v>148</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
@@ -5174,19 +5207,19 @@
         <v>85</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>251</v>
+        <v>257</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="O30" t="s" s="2">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="P30" t="s" s="2">
         <v>74</v>
@@ -5235,7 +5268,7 @@
         <v>74</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>252</v>
+        <v>258</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>75</v>
@@ -5247,7 +5280,7 @@
         <v>74</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="AK30" t="s" s="2">
         <v>74</v>
@@ -5256,15 +5289,15 @@
         <v>74</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>253</v>
+        <v>259</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>253</v>
+        <v>259</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5287,13 +5320,13 @@
         <v>85</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>255</v>
+        <v>261</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" s="2"/>
@@ -5320,13 +5353,13 @@
         <v>74</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>236</v>
+        <v>242</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>256</v>
+        <v>262</v>
       </c>
       <c r="Z31" t="s" s="2">
-        <v>257</v>
+        <v>263</v>
       </c>
       <c r="AA31" t="s" s="2">
         <v>74</v>
@@ -5344,7 +5377,7 @@
         <v>74</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>253</v>
+        <v>259</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>84</v>
@@ -5359,10 +5392,10 @@
         <v>96</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>258</v>
+        <v>74</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>74</v>
+        <v>264</v>
       </c>
       <c r="AM31" t="s" s="2">
         <v>74</v>
@@ -5370,10 +5403,10 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5396,13 +5429,13 @@
         <v>85</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>260</v>
+        <v>266</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>261</v>
+        <v>267</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" s="2"/>
@@ -5453,7 +5486,7 @@
         <v>74</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>75</v>
@@ -5468,10 +5501,10 @@
         <v>96</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>263</v>
+        <v>74</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>74</v>
+        <v>269</v>
       </c>
       <c r="AM32" t="s" s="2">
         <v>74</v>
@@ -5479,13 +5512,13 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="C33" t="s" s="2">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="D33" t="s" s="2">
         <v>74</v>
@@ -5507,13 +5540,13 @@
         <v>85</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>242</v>
+        <v>248</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>243</v>
+        <v>249</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" s="2"/>
@@ -5564,7 +5597,7 @@
         <v>74</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>75</v>
@@ -5579,10 +5612,10 @@
         <v>96</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>245</v>
+        <v>74</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>74</v>
+        <v>251</v>
       </c>
       <c r="AM33" t="s" s="2">
         <v>74</v>
@@ -5590,10 +5623,10 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>266</v>
+        <v>272</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5616,13 +5649,13 @@
         <v>74</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" s="2"/>
@@ -5673,7 +5706,7 @@
         <v>74</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>75</v>
@@ -5682,7 +5715,7 @@
         <v>84</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>74</v>
+        <v>153</v>
       </c>
       <c r="AJ34" t="s" s="2">
         <v>74</v>
@@ -5694,19 +5727,19 @@
         <v>74</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>145</v>
+        <v>148</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>267</v>
+        <v>273</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
@@ -5725,16 +5758,16 @@
         <v>74</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
@@ -5784,7 +5817,7 @@
         <v>74</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>75</v>
@@ -5796,7 +5829,7 @@
         <v>74</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="AK35" t="s" s="2">
         <v>74</v>
@@ -5805,19 +5838,19 @@
         <v>74</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>145</v>
+        <v>148</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>268</v>
+        <v>274</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
@@ -5836,19 +5869,19 @@
         <v>85</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>251</v>
+        <v>257</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="O36" t="s" s="2">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="P36" t="s" s="2">
         <v>74</v>
@@ -5897,7 +5930,7 @@
         <v>74</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>252</v>
+        <v>258</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>75</v>
@@ -5909,7 +5942,7 @@
         <v>74</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="AK36" t="s" s="2">
         <v>74</v>
@@ -5918,15 +5951,15 @@
         <v>74</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>269</v>
+        <v>275</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>253</v>
+        <v>259</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -5949,13 +5982,13 @@
         <v>85</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>255</v>
+        <v>261</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" s="2"/>
@@ -5967,7 +6000,7 @@
         <v>74</v>
       </c>
       <c r="S37" t="s" s="2">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="T37" t="s" s="2">
         <v>74</v>
@@ -5982,13 +6015,13 @@
         <v>74</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>236</v>
+        <v>242</v>
       </c>
       <c r="Y37" t="s" s="2">
-        <v>256</v>
+        <v>262</v>
       </c>
       <c r="Z37" t="s" s="2">
-        <v>257</v>
+        <v>263</v>
       </c>
       <c r="AA37" t="s" s="2">
         <v>74</v>
@@ -6006,7 +6039,7 @@
         <v>74</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>253</v>
+        <v>259</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>84</v>
@@ -6021,10 +6054,10 @@
         <v>96</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>258</v>
+        <v>74</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>74</v>
+        <v>264</v>
       </c>
       <c r="AM37" t="s" s="2">
         <v>74</v>
@@ -6032,10 +6065,10 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>271</v>
+        <v>277</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6058,13 +6091,13 @@
         <v>85</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>261</v>
+        <v>267</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" s="2"/>
@@ -6091,11 +6124,11 @@
         <v>74</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>108</v>
+        <v>222</v>
       </c>
       <c r="Y38" s="2"/>
       <c r="Z38" t="s" s="2">
-        <v>272</v>
+        <v>278</v>
       </c>
       <c r="AA38" t="s" s="2">
         <v>74</v>
@@ -6113,7 +6146,7 @@
         <v>74</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>75</v>
@@ -6128,10 +6161,10 @@
         <v>96</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>263</v>
+        <v>74</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>74</v>
+        <v>269</v>
       </c>
       <c r="AM38" t="s" s="2">
         <v>74</v>
@@ -6139,13 +6172,13 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="C39" t="s" s="2">
-        <v>274</v>
+        <v>280</v>
       </c>
       <c r="D39" t="s" s="2">
         <v>74</v>
@@ -6167,13 +6200,13 @@
         <v>85</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>242</v>
+        <v>248</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>243</v>
+        <v>249</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" s="2"/>
@@ -6224,7 +6257,7 @@
         <v>74</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>75</v>
@@ -6239,10 +6272,10 @@
         <v>96</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>245</v>
+        <v>74</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>74</v>
+        <v>251</v>
       </c>
       <c r="AM39" t="s" s="2">
         <v>74</v>
@@ -6250,10 +6283,10 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>275</v>
+        <v>281</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6276,13 +6309,13 @@
         <v>74</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" s="2"/>
@@ -6333,7 +6366,7 @@
         <v>74</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>75</v>
@@ -6342,7 +6375,7 @@
         <v>84</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>74</v>
+        <v>153</v>
       </c>
       <c r="AJ40" t="s" s="2">
         <v>74</v>
@@ -6354,19 +6387,19 @@
         <v>74</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>145</v>
+        <v>148</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>276</v>
+        <v>282</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="E41" s="2"/>
       <c r="F41" t="s" s="2">
@@ -6385,16 +6418,16 @@
         <v>74</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
@@ -6444,7 +6477,7 @@
         <v>74</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>75</v>
@@ -6456,7 +6489,7 @@
         <v>74</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="AK41" t="s" s="2">
         <v>74</v>
@@ -6465,19 +6498,19 @@
         <v>74</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>145</v>
+        <v>148</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
@@ -6496,19 +6529,19 @@
         <v>85</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>251</v>
+        <v>257</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="O42" t="s" s="2">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="P42" t="s" s="2">
         <v>74</v>
@@ -6557,7 +6590,7 @@
         <v>74</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>252</v>
+        <v>258</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>75</v>
@@ -6569,7 +6602,7 @@
         <v>74</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="AK42" t="s" s="2">
         <v>74</v>
@@ -6578,15 +6611,15 @@
         <v>74</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>278</v>
+        <v>284</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>253</v>
+        <v>259</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -6609,13 +6642,13 @@
         <v>85</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>255</v>
+        <v>261</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" s="2"/>
@@ -6627,7 +6660,7 @@
         <v>74</v>
       </c>
       <c r="S43" t="s" s="2">
-        <v>279</v>
+        <v>285</v>
       </c>
       <c r="T43" t="s" s="2">
         <v>74</v>
@@ -6642,13 +6675,13 @@
         <v>74</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>236</v>
+        <v>242</v>
       </c>
       <c r="Y43" t="s" s="2">
-        <v>256</v>
+        <v>262</v>
       </c>
       <c r="Z43" t="s" s="2">
-        <v>257</v>
+        <v>263</v>
       </c>
       <c r="AA43" t="s" s="2">
         <v>74</v>
@@ -6666,7 +6699,7 @@
         <v>74</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>253</v>
+        <v>259</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>84</v>
@@ -6681,10 +6714,10 @@
         <v>96</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>258</v>
+        <v>74</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>74</v>
+        <v>264</v>
       </c>
       <c r="AM43" t="s" s="2">
         <v>74</v>
@@ -6692,10 +6725,10 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>280</v>
+        <v>286</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -6718,13 +6751,13 @@
         <v>85</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>261</v>
+        <v>267</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" s="2"/>
@@ -6751,11 +6784,11 @@
         <v>74</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>108</v>
+        <v>222</v>
       </c>
       <c r="Y44" s="2"/>
       <c r="Z44" t="s" s="2">
-        <v>281</v>
+        <v>287</v>
       </c>
       <c r="AA44" t="s" s="2">
         <v>74</v>
@@ -6773,7 +6806,7 @@
         <v>74</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>75</v>
@@ -6788,10 +6821,10 @@
         <v>96</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>263</v>
+        <v>74</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>74</v>
+        <v>269</v>
       </c>
       <c r="AM44" t="s" s="2">
         <v>74</v>
@@ -6799,13 +6832,13 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>282</v>
+        <v>288</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="C45" t="s" s="2">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="D45" t="s" s="2">
         <v>74</v>
@@ -6827,13 +6860,13 @@
         <v>85</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>242</v>
+        <v>248</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>243</v>
+        <v>249</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" s="2"/>
@@ -6884,7 +6917,7 @@
         <v>74</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>75</v>
@@ -6899,10 +6932,10 @@
         <v>96</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>245</v>
+        <v>74</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>74</v>
+        <v>251</v>
       </c>
       <c r="AM45" t="s" s="2">
         <v>74</v>
@@ -6910,10 +6943,10 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>284</v>
+        <v>290</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -6936,13 +6969,13 @@
         <v>74</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" s="2"/>
@@ -6993,7 +7026,7 @@
         <v>74</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>75</v>
@@ -7002,7 +7035,7 @@
         <v>84</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>74</v>
+        <v>153</v>
       </c>
       <c r="AJ46" t="s" s="2">
         <v>74</v>
@@ -7014,19 +7047,19 @@
         <v>74</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>145</v>
+        <v>148</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>285</v>
+        <v>291</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="E47" s="2"/>
       <c r="F47" t="s" s="2">
@@ -7045,16 +7078,16 @@
         <v>74</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="O47" s="2"/>
       <c r="P47" t="s" s="2">
@@ -7104,7 +7137,7 @@
         <v>74</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>75</v>
@@ -7116,7 +7149,7 @@
         <v>74</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="AK47" t="s" s="2">
         <v>74</v>
@@ -7125,19 +7158,19 @@
         <v>74</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>145</v>
+        <v>148</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>286</v>
+        <v>292</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="E48" s="2"/>
       <c r="F48" t="s" s="2">
@@ -7156,19 +7189,19 @@
         <v>85</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>251</v>
+        <v>257</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="O48" t="s" s="2">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="P48" t="s" s="2">
         <v>74</v>
@@ -7217,7 +7250,7 @@
         <v>74</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>252</v>
+        <v>258</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>75</v>
@@ -7229,7 +7262,7 @@
         <v>74</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="AK48" t="s" s="2">
         <v>74</v>
@@ -7238,15 +7271,15 @@
         <v>74</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>287</v>
+        <v>293</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>253</v>
+        <v>259</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7269,13 +7302,13 @@
         <v>85</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>255</v>
+        <v>261</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" s="2"/>
@@ -7287,7 +7320,7 @@
         <v>74</v>
       </c>
       <c r="S49" t="s" s="2">
-        <v>288</v>
+        <v>294</v>
       </c>
       <c r="T49" t="s" s="2">
         <v>74</v>
@@ -7302,13 +7335,13 @@
         <v>74</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>236</v>
+        <v>242</v>
       </c>
       <c r="Y49" t="s" s="2">
-        <v>256</v>
+        <v>262</v>
       </c>
       <c r="Z49" t="s" s="2">
-        <v>257</v>
+        <v>263</v>
       </c>
       <c r="AA49" t="s" s="2">
         <v>74</v>
@@ -7326,7 +7359,7 @@
         <v>74</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>253</v>
+        <v>259</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>84</v>
@@ -7341,10 +7374,10 @@
         <v>96</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>258</v>
+        <v>74</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>74</v>
+        <v>264</v>
       </c>
       <c r="AM49" t="s" s="2">
         <v>74</v>
@@ -7352,10 +7385,10 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>289</v>
+        <v>295</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -7378,13 +7411,13 @@
         <v>85</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>261</v>
+        <v>267</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="N50" s="2"/>
       <c r="O50" s="2"/>
@@ -7411,11 +7444,11 @@
         <v>74</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>108</v>
+        <v>222</v>
       </c>
       <c r="Y50" s="2"/>
       <c r="Z50" t="s" s="2">
-        <v>290</v>
+        <v>296</v>
       </c>
       <c r="AA50" t="s" s="2">
         <v>74</v>
@@ -7433,7 +7466,7 @@
         <v>74</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>75</v>
@@ -7448,10 +7481,10 @@
         <v>96</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>263</v>
+        <v>74</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>74</v>
+        <v>269</v>
       </c>
       <c r="AM50" t="s" s="2">
         <v>74</v>
@@ -7459,13 +7492,13 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>291</v>
+        <v>297</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="C51" t="s" s="2">
-        <v>292</v>
+        <v>298</v>
       </c>
       <c r="D51" t="s" s="2">
         <v>74</v>
@@ -7487,13 +7520,13 @@
         <v>85</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>242</v>
+        <v>248</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>243</v>
+        <v>249</v>
       </c>
       <c r="N51" s="2"/>
       <c r="O51" s="2"/>
@@ -7544,7 +7577,7 @@
         <v>74</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>75</v>
@@ -7559,10 +7592,10 @@
         <v>96</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>245</v>
+        <v>74</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>74</v>
+        <v>251</v>
       </c>
       <c r="AM51" t="s" s="2">
         <v>74</v>
@@ -7570,10 +7603,10 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>293</v>
+        <v>299</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -7596,13 +7629,13 @@
         <v>74</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" s="2"/>
@@ -7653,7 +7686,7 @@
         <v>74</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>75</v>
@@ -7662,7 +7695,7 @@
         <v>84</v>
       </c>
       <c r="AI52" t="s" s="2">
-        <v>74</v>
+        <v>153</v>
       </c>
       <c r="AJ52" t="s" s="2">
         <v>74</v>
@@ -7674,19 +7707,19 @@
         <v>74</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>145</v>
+        <v>148</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>294</v>
+        <v>300</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="E53" s="2"/>
       <c r="F53" t="s" s="2">
@@ -7705,16 +7738,16 @@
         <v>74</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="O53" s="2"/>
       <c r="P53" t="s" s="2">
@@ -7764,7 +7797,7 @@
         <v>74</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>75</v>
@@ -7776,7 +7809,7 @@
         <v>74</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="AK53" t="s" s="2">
         <v>74</v>
@@ -7785,19 +7818,19 @@
         <v>74</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>145</v>
+        <v>148</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>295</v>
+        <v>301</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="E54" s="2"/>
       <c r="F54" t="s" s="2">
@@ -7816,19 +7849,19 @@
         <v>85</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>251</v>
+        <v>257</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="O54" t="s" s="2">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="P54" t="s" s="2">
         <v>74</v>
@@ -7877,7 +7910,7 @@
         <v>74</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>252</v>
+        <v>258</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>75</v>
@@ -7889,7 +7922,7 @@
         <v>74</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="AK54" t="s" s="2">
         <v>74</v>
@@ -7898,15 +7931,15 @@
         <v>74</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>253</v>
+        <v>259</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -7929,13 +7962,13 @@
         <v>85</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>255</v>
+        <v>261</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" s="2"/>
@@ -7947,7 +7980,7 @@
         <v>74</v>
       </c>
       <c r="S55" t="s" s="2">
-        <v>297</v>
+        <v>303</v>
       </c>
       <c r="T55" t="s" s="2">
         <v>74</v>
@@ -7962,13 +7995,13 @@
         <v>74</v>
       </c>
       <c r="X55" t="s" s="2">
-        <v>236</v>
+        <v>242</v>
       </c>
       <c r="Y55" t="s" s="2">
-        <v>256</v>
+        <v>262</v>
       </c>
       <c r="Z55" t="s" s="2">
-        <v>257</v>
+        <v>263</v>
       </c>
       <c r="AA55" t="s" s="2">
         <v>74</v>
@@ -7986,7 +8019,7 @@
         <v>74</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>253</v>
+        <v>259</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>84</v>
@@ -8001,10 +8034,10 @@
         <v>96</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>258</v>
+        <v>74</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>74</v>
+        <v>264</v>
       </c>
       <c r="AM55" t="s" s="2">
         <v>74</v>
@@ -8012,10 +8045,10 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>298</v>
+        <v>304</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -8038,13 +8071,13 @@
         <v>85</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>261</v>
+        <v>267</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" s="2"/>
@@ -8071,11 +8104,11 @@
         <v>74</v>
       </c>
       <c r="X56" t="s" s="2">
-        <v>108</v>
+        <v>222</v>
       </c>
       <c r="Y56" s="2"/>
       <c r="Z56" t="s" s="2">
-        <v>299</v>
+        <v>305</v>
       </c>
       <c r="AA56" t="s" s="2">
         <v>74</v>
@@ -8093,7 +8126,7 @@
         <v>74</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>75</v>
@@ -8108,10 +8141,10 @@
         <v>96</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>263</v>
+        <v>74</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>74</v>
+        <v>269</v>
       </c>
       <c r="AM56" t="s" s="2">
         <v>74</v>
@@ -8119,13 +8152,13 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="C57" t="s" s="2">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="D57" t="s" s="2">
         <v>74</v>
@@ -8147,13 +8180,13 @@
         <v>85</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>242</v>
+        <v>248</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>243</v>
+        <v>249</v>
       </c>
       <c r="N57" s="2"/>
       <c r="O57" s="2"/>
@@ -8204,7 +8237,7 @@
         <v>74</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>75</v>
@@ -8219,10 +8252,10 @@
         <v>96</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>245</v>
+        <v>74</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>74</v>
+        <v>251</v>
       </c>
       <c r="AM57" t="s" s="2">
         <v>74</v>
@@ -8230,10 +8263,10 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>302</v>
+        <v>308</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -8256,13 +8289,13 @@
         <v>74</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="N58" s="2"/>
       <c r="O58" s="2"/>
@@ -8313,7 +8346,7 @@
         <v>74</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>75</v>
@@ -8322,7 +8355,7 @@
         <v>84</v>
       </c>
       <c r="AI58" t="s" s="2">
-        <v>74</v>
+        <v>153</v>
       </c>
       <c r="AJ58" t="s" s="2">
         <v>74</v>
@@ -8334,19 +8367,19 @@
         <v>74</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>145</v>
+        <v>148</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>303</v>
+        <v>309</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="E59" s="2"/>
       <c r="F59" t="s" s="2">
@@ -8365,16 +8398,16 @@
         <v>74</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="N59" t="s" s="2">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="O59" s="2"/>
       <c r="P59" t="s" s="2">
@@ -8424,7 +8457,7 @@
         <v>74</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>75</v>
@@ -8436,7 +8469,7 @@
         <v>74</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="AK59" t="s" s="2">
         <v>74</v>
@@ -8445,19 +8478,19 @@
         <v>74</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>145</v>
+        <v>148</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>304</v>
+        <v>310</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="E60" s="2"/>
       <c r="F60" t="s" s="2">
@@ -8476,19 +8509,19 @@
         <v>85</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>251</v>
+        <v>257</v>
       </c>
       <c r="N60" t="s" s="2">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="O60" t="s" s="2">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="P60" t="s" s="2">
         <v>74</v>
@@ -8537,7 +8570,7 @@
         <v>74</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>252</v>
+        <v>258</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>75</v>
@@ -8549,7 +8582,7 @@
         <v>74</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="AK60" t="s" s="2">
         <v>74</v>
@@ -8558,15 +8591,15 @@
         <v>74</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>305</v>
+        <v>311</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>253</v>
+        <v>259</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -8589,13 +8622,13 @@
         <v>85</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>255</v>
+        <v>261</v>
       </c>
       <c r="N61" s="2"/>
       <c r="O61" s="2"/>
@@ -8607,7 +8640,7 @@
         <v>74</v>
       </c>
       <c r="S61" t="s" s="2">
-        <v>306</v>
+        <v>312</v>
       </c>
       <c r="T61" t="s" s="2">
         <v>74</v>
@@ -8622,13 +8655,13 @@
         <v>74</v>
       </c>
       <c r="X61" t="s" s="2">
-        <v>236</v>
+        <v>242</v>
       </c>
       <c r="Y61" t="s" s="2">
-        <v>256</v>
+        <v>262</v>
       </c>
       <c r="Z61" t="s" s="2">
-        <v>257</v>
+        <v>263</v>
       </c>
       <c r="AA61" t="s" s="2">
         <v>74</v>
@@ -8646,7 +8679,7 @@
         <v>74</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>253</v>
+        <v>259</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>84</v>
@@ -8661,10 +8694,10 @@
         <v>96</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>258</v>
+        <v>74</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>74</v>
+        <v>264</v>
       </c>
       <c r="AM61" t="s" s="2">
         <v>74</v>
@@ -8672,10 +8705,10 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>307</v>
+        <v>313</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -8698,13 +8731,13 @@
         <v>85</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>261</v>
+        <v>267</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="N62" s="2"/>
       <c r="O62" s="2"/>
@@ -8731,11 +8764,11 @@
         <v>74</v>
       </c>
       <c r="X62" t="s" s="2">
-        <v>108</v>
+        <v>222</v>
       </c>
       <c r="Y62" s="2"/>
       <c r="Z62" t="s" s="2">
-        <v>308</v>
+        <v>314</v>
       </c>
       <c r="AA62" t="s" s="2">
         <v>74</v>
@@ -8753,7 +8786,7 @@
         <v>74</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>75</v>
@@ -8768,10 +8801,10 @@
         <v>96</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>263</v>
+        <v>74</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>74</v>
+        <v>269</v>
       </c>
       <c r="AM62" t="s" s="2">
         <v>74</v>
@@ -8779,13 +8812,13 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>309</v>
+        <v>315</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="C63" t="s" s="2">
-        <v>310</v>
+        <v>316</v>
       </c>
       <c r="D63" t="s" s="2">
         <v>74</v>
@@ -8807,13 +8840,13 @@
         <v>85</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>242</v>
+        <v>248</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>243</v>
+        <v>249</v>
       </c>
       <c r="N63" s="2"/>
       <c r="O63" s="2"/>
@@ -8864,7 +8897,7 @@
         <v>74</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>75</v>
@@ -8879,10 +8912,10 @@
         <v>96</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>245</v>
+        <v>74</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>74</v>
+        <v>251</v>
       </c>
       <c r="AM63" t="s" s="2">
         <v>74</v>
@@ -8890,10 +8923,10 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>311</v>
+        <v>317</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -8916,13 +8949,13 @@
         <v>74</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="N64" s="2"/>
       <c r="O64" s="2"/>
@@ -8973,7 +9006,7 @@
         <v>74</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>75</v>
@@ -8982,7 +9015,7 @@
         <v>84</v>
       </c>
       <c r="AI64" t="s" s="2">
-        <v>74</v>
+        <v>153</v>
       </c>
       <c r="AJ64" t="s" s="2">
         <v>74</v>
@@ -8994,19 +9027,19 @@
         <v>74</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>145</v>
+        <v>148</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>312</v>
+        <v>318</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="E65" s="2"/>
       <c r="F65" t="s" s="2">
@@ -9025,16 +9058,16 @@
         <v>74</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="N65" t="s" s="2">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="O65" s="2"/>
       <c r="P65" t="s" s="2">
@@ -9084,7 +9117,7 @@
         <v>74</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>75</v>
@@ -9096,7 +9129,7 @@
         <v>74</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="AK65" t="s" s="2">
         <v>74</v>
@@ -9105,19 +9138,19 @@
         <v>74</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>145</v>
+        <v>148</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>313</v>
+        <v>319</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="E66" s="2"/>
       <c r="F66" t="s" s="2">
@@ -9136,19 +9169,19 @@
         <v>85</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>251</v>
+        <v>257</v>
       </c>
       <c r="N66" t="s" s="2">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="O66" t="s" s="2">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="P66" t="s" s="2">
         <v>74</v>
@@ -9197,7 +9230,7 @@
         <v>74</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>252</v>
+        <v>258</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>75</v>
@@ -9209,7 +9242,7 @@
         <v>74</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="AK66" t="s" s="2">
         <v>74</v>
@@ -9218,15 +9251,15 @@
         <v>74</v>
       </c>
       <c r="AM66" t="s" s="2">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>314</v>
+        <v>320</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>253</v>
+        <v>259</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -9249,13 +9282,13 @@
         <v>85</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>255</v>
+        <v>261</v>
       </c>
       <c r="N67" s="2"/>
       <c r="O67" s="2"/>
@@ -9267,7 +9300,7 @@
         <v>74</v>
       </c>
       <c r="S67" t="s" s="2">
-        <v>315</v>
+        <v>321</v>
       </c>
       <c r="T67" t="s" s="2">
         <v>74</v>
@@ -9282,13 +9315,13 @@
         <v>74</v>
       </c>
       <c r="X67" t="s" s="2">
-        <v>236</v>
+        <v>242</v>
       </c>
       <c r="Y67" t="s" s="2">
-        <v>256</v>
+        <v>262</v>
       </c>
       <c r="Z67" t="s" s="2">
-        <v>257</v>
+        <v>263</v>
       </c>
       <c r="AA67" t="s" s="2">
         <v>74</v>
@@ -9306,7 +9339,7 @@
         <v>74</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>253</v>
+        <v>259</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>84</v>
@@ -9321,10 +9354,10 @@
         <v>96</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>258</v>
+        <v>74</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>74</v>
+        <v>264</v>
       </c>
       <c r="AM67" t="s" s="2">
         <v>74</v>
@@ -9332,10 +9365,10 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>316</v>
+        <v>322</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -9358,13 +9391,13 @@
         <v>85</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>317</v>
+        <v>323</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>261</v>
+        <v>267</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="N68" s="2"/>
       <c r="O68" s="2"/>
@@ -9415,7 +9448,7 @@
         <v>74</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>75</v>
@@ -9430,10 +9463,10 @@
         <v>96</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>263</v>
+        <v>74</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>74</v>
+        <v>269</v>
       </c>
       <c r="AM68" t="s" s="2">
         <v>74</v>
@@ -9441,13 +9474,13 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>318</v>
+        <v>324</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="C69" t="s" s="2">
-        <v>319</v>
+        <v>325</v>
       </c>
       <c r="D69" t="s" s="2">
         <v>74</v>
@@ -9469,13 +9502,13 @@
         <v>85</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>242</v>
+        <v>248</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>243</v>
+        <v>249</v>
       </c>
       <c r="N69" s="2"/>
       <c r="O69" s="2"/>
@@ -9526,7 +9559,7 @@
         <v>74</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>75</v>
@@ -9541,10 +9574,10 @@
         <v>96</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>245</v>
+        <v>74</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>74</v>
+        <v>251</v>
       </c>
       <c r="AM69" t="s" s="2">
         <v>74</v>
@@ -9552,10 +9585,10 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>320</v>
+        <v>326</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -9578,13 +9611,13 @@
         <v>74</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="N70" s="2"/>
       <c r="O70" s="2"/>
@@ -9635,7 +9668,7 @@
         <v>74</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>75</v>
@@ -9644,7 +9677,7 @@
         <v>84</v>
       </c>
       <c r="AI70" t="s" s="2">
-        <v>74</v>
+        <v>153</v>
       </c>
       <c r="AJ70" t="s" s="2">
         <v>74</v>
@@ -9656,19 +9689,19 @@
         <v>74</v>
       </c>
       <c r="AM70" t="s" s="2">
-        <v>145</v>
+        <v>148</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>321</v>
+        <v>327</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="E71" s="2"/>
       <c r="F71" t="s" s="2">
@@ -9687,16 +9720,16 @@
         <v>74</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="N71" t="s" s="2">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="O71" s="2"/>
       <c r="P71" t="s" s="2">
@@ -9746,7 +9779,7 @@
         <v>74</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>75</v>
@@ -9758,7 +9791,7 @@
         <v>74</v>
       </c>
       <c r="AJ71" t="s" s="2">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="AK71" t="s" s="2">
         <v>74</v>
@@ -9767,19 +9800,19 @@
         <v>74</v>
       </c>
       <c r="AM71" t="s" s="2">
-        <v>145</v>
+        <v>148</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>322</v>
+        <v>328</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="E72" s="2"/>
       <c r="F72" t="s" s="2">
@@ -9798,19 +9831,19 @@
         <v>85</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>251</v>
+        <v>257</v>
       </c>
       <c r="N72" t="s" s="2">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="O72" t="s" s="2">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="P72" t="s" s="2">
         <v>74</v>
@@ -9859,7 +9892,7 @@
         <v>74</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>252</v>
+        <v>258</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>75</v>
@@ -9871,7 +9904,7 @@
         <v>74</v>
       </c>
       <c r="AJ72" t="s" s="2">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="AK72" t="s" s="2">
         <v>74</v>
@@ -9880,15 +9913,15 @@
         <v>74</v>
       </c>
       <c r="AM72" t="s" s="2">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>323</v>
+        <v>329</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>253</v>
+        <v>259</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -9911,13 +9944,13 @@
         <v>85</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>255</v>
+        <v>261</v>
       </c>
       <c r="N73" s="2"/>
       <c r="O73" s="2"/>
@@ -9929,7 +9962,7 @@
         <v>74</v>
       </c>
       <c r="S73" t="s" s="2">
-        <v>324</v>
+        <v>330</v>
       </c>
       <c r="T73" t="s" s="2">
         <v>74</v>
@@ -9944,13 +9977,13 @@
         <v>74</v>
       </c>
       <c r="X73" t="s" s="2">
-        <v>236</v>
+        <v>242</v>
       </c>
       <c r="Y73" t="s" s="2">
-        <v>256</v>
+        <v>262</v>
       </c>
       <c r="Z73" t="s" s="2">
-        <v>257</v>
+        <v>263</v>
       </c>
       <c r="AA73" t="s" s="2">
         <v>74</v>
@@ -9968,7 +10001,7 @@
         <v>74</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>253</v>
+        <v>259</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>84</v>
@@ -9983,10 +10016,10 @@
         <v>96</v>
       </c>
       <c r="AK73" t="s" s="2">
-        <v>258</v>
+        <v>74</v>
       </c>
       <c r="AL73" t="s" s="2">
-        <v>74</v>
+        <v>264</v>
       </c>
       <c r="AM73" t="s" s="2">
         <v>74</v>
@@ -9994,10 +10027,10 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>325</v>
+        <v>331</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -10020,13 +10053,13 @@
         <v>85</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>326</v>
+        <v>332</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>261</v>
+        <v>267</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="N74" s="2"/>
       <c r="O74" s="2"/>
@@ -10077,7 +10110,7 @@
         <v>74</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>75</v>
@@ -10092,10 +10125,10 @@
         <v>96</v>
       </c>
       <c r="AK74" t="s" s="2">
-        <v>263</v>
+        <v>74</v>
       </c>
       <c r="AL74" t="s" s="2">
-        <v>74</v>
+        <v>269</v>
       </c>
       <c r="AM74" t="s" s="2">
         <v>74</v>
@@ -10103,10 +10136,10 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>327</v>
+        <v>333</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>328</v>
+        <v>334</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
@@ -10132,10 +10165,10 @@
         <v>86</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="N75" s="2"/>
       <c r="O75" s="2"/>
@@ -10186,7 +10219,7 @@
         <v>74</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>75</v>
@@ -10195,7 +10228,7 @@
         <v>84</v>
       </c>
       <c r="AI75" t="s" s="2">
-        <v>74</v>
+        <v>153</v>
       </c>
       <c r="AJ75" t="s" s="2">
         <v>74</v>
@@ -10207,19 +10240,19 @@
         <v>74</v>
       </c>
       <c r="AM75" t="s" s="2">
-        <v>145</v>
+        <v>148</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>329</v>
+        <v>335</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>330</v>
+        <v>336</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="E76" s="2"/>
       <c r="F76" t="s" s="2">
@@ -10238,16 +10271,16 @@
         <v>74</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="N76" t="s" s="2">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="O76" s="2"/>
       <c r="P76" t="s" s="2">
@@ -10285,19 +10318,19 @@
         <v>74</v>
       </c>
       <c r="AB76" t="s" s="2">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="AC76" t="s" s="2">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="AD76" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>75</v>
@@ -10309,7 +10342,7 @@
         <v>74</v>
       </c>
       <c r="AJ76" t="s" s="2">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="AK76" t="s" s="2">
         <v>74</v>
@@ -10318,15 +10351,15 @@
         <v>74</v>
       </c>
       <c r="AM76" t="s" s="2">
-        <v>145</v>
+        <v>148</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>331</v>
+        <v>337</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>332</v>
+        <v>338</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
@@ -10352,14 +10385,14 @@
         <v>104</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>333</v>
+        <v>339</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>334</v>
+        <v>340</v>
       </c>
       <c r="N77" s="2"/>
       <c r="O77" t="s" s="2">
-        <v>335</v>
+        <v>341</v>
       </c>
       <c r="P77" t="s" s="2">
         <v>74</v>
@@ -10372,7 +10405,7 @@
         <v>74</v>
       </c>
       <c r="T77" t="s" s="2">
-        <v>336</v>
+        <v>342</v>
       </c>
       <c r="U77" t="s" s="2">
         <v>74</v>
@@ -10384,13 +10417,13 @@
         <v>74</v>
       </c>
       <c r="X77" t="s" s="2">
-        <v>162</v>
+        <v>108</v>
       </c>
       <c r="Y77" t="s" s="2">
-        <v>337</v>
+        <v>343</v>
       </c>
       <c r="Z77" t="s" s="2">
-        <v>338</v>
+        <v>344</v>
       </c>
       <c r="AA77" t="s" s="2">
         <v>74</v>
@@ -10408,7 +10441,7 @@
         <v>74</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>339</v>
+        <v>345</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>75</v>
@@ -10417,7 +10450,7 @@
         <v>84</v>
       </c>
       <c r="AI77" t="s" s="2">
-        <v>74</v>
+        <v>346</v>
       </c>
       <c r="AJ77" t="s" s="2">
         <v>96</v>
@@ -10429,15 +10462,15 @@
         <v>74</v>
       </c>
       <c r="AM77" t="s" s="2">
-        <v>340</v>
+        <v>347</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>341</v>
+        <v>348</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>342</v>
+        <v>349</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
@@ -10463,14 +10496,14 @@
         <v>104</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>343</v>
+        <v>350</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>344</v>
+        <v>351</v>
       </c>
       <c r="N78" s="2"/>
       <c r="O78" t="s" s="2">
-        <v>345</v>
+        <v>352</v>
       </c>
       <c r="P78" t="s" s="2">
         <v>74</v>
@@ -10483,7 +10516,7 @@
         <v>74</v>
       </c>
       <c r="T78" t="s" s="2">
-        <v>346</v>
+        <v>353</v>
       </c>
       <c r="U78" t="s" s="2">
         <v>74</v>
@@ -10498,7 +10531,7 @@
         <v>108</v>
       </c>
       <c r="Y78" t="s" s="2">
-        <v>109</v>
+        <v>354</v>
       </c>
       <c r="Z78" t="s" s="2">
         <v>110</v>
@@ -10519,7 +10552,7 @@
         <v>74</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>347</v>
+        <v>355</v>
       </c>
       <c r="AG78" t="s" s="2">
         <v>75</v>
@@ -10540,15 +10573,15 @@
         <v>74</v>
       </c>
       <c r="AM78" t="s" s="2">
-        <v>348</v>
+        <v>356</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>349</v>
+        <v>357</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>350</v>
+        <v>358</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
@@ -10571,19 +10604,19 @@
         <v>74</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>351</v>
+        <v>359</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>352</v>
+        <v>360</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>353</v>
+        <v>361</v>
       </c>
       <c r="N79" t="s" s="2">
-        <v>354</v>
+        <v>362</v>
       </c>
       <c r="O79" t="s" s="2">
-        <v>355</v>
+        <v>363</v>
       </c>
       <c r="P79" t="s" s="2">
         <v>74</v>
@@ -10632,7 +10665,7 @@
         <v>74</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>356</v>
+        <v>364</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>75</v>
@@ -10641,7 +10674,7 @@
         <v>84</v>
       </c>
       <c r="AI79" t="s" s="2">
-        <v>74</v>
+        <v>346</v>
       </c>
       <c r="AJ79" t="s" s="2">
         <v>96</v>
@@ -10653,15 +10686,15 @@
         <v>74</v>
       </c>
       <c r="AM79" t="s" s="2">
-        <v>357</v>
+        <v>365</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>358</v>
+        <v>366</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>359</v>
+        <v>367</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
@@ -10684,19 +10717,19 @@
         <v>85</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>360</v>
+        <v>368</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>361</v>
+        <v>369</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>362</v>
+        <v>370</v>
       </c>
       <c r="N80" t="s" s="2">
-        <v>363</v>
+        <v>371</v>
       </c>
       <c r="O80" t="s" s="2">
-        <v>364</v>
+        <v>372</v>
       </c>
       <c r="P80" t="s" s="2">
         <v>74</v>
@@ -10709,7 +10742,7 @@
         <v>74</v>
       </c>
       <c r="T80" t="s" s="2">
-        <v>365</v>
+        <v>373</v>
       </c>
       <c r="U80" t="s" s="2">
         <v>74</v>
@@ -10745,7 +10778,7 @@
         <v>74</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>366</v>
+        <v>374</v>
       </c>
       <c r="AG80" t="s" s="2">
         <v>75</v>
@@ -10766,15 +10799,15 @@
         <v>74</v>
       </c>
       <c r="AM80" t="s" s="2">
-        <v>367</v>
+        <v>375</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>368</v>
+        <v>376</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>369</v>
+        <v>377</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
@@ -10797,19 +10830,19 @@
         <v>85</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>370</v>
+        <v>378</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>371</v>
+        <v>379</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>372</v>
+        <v>380</v>
       </c>
       <c r="N81" t="s" s="2">
-        <v>373</v>
+        <v>381</v>
       </c>
       <c r="O81" t="s" s="2">
-        <v>374</v>
+        <v>382</v>
       </c>
       <c r="P81" t="s" s="2">
         <v>74</v>
@@ -10858,7 +10891,7 @@
         <v>74</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>375</v>
+        <v>383</v>
       </c>
       <c r="AG81" t="s" s="2">
         <v>75</v>
@@ -10879,15 +10912,15 @@
         <v>74</v>
       </c>
       <c r="AM81" t="s" s="2">
-        <v>376</v>
+        <v>384</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>377</v>
+        <v>385</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>378</v>
+        <v>386</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
@@ -10910,19 +10943,19 @@
         <v>85</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>351</v>
+        <v>359</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>379</v>
+        <v>387</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>380</v>
+        <v>388</v>
       </c>
       <c r="N82" t="s" s="2">
-        <v>381</v>
+        <v>389</v>
       </c>
       <c r="O82" t="s" s="2">
-        <v>382</v>
+        <v>390</v>
       </c>
       <c r="P82" t="s" s="2">
         <v>74</v>
@@ -10971,7 +11004,7 @@
         <v>74</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>383</v>
+        <v>391</v>
       </c>
       <c r="AG82" t="s" s="2">
         <v>75</v>
@@ -10992,15 +11025,15 @@
         <v>74</v>
       </c>
       <c r="AM82" t="s" s="2">
-        <v>384</v>
+        <v>392</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>385</v>
+        <v>393</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>386</v>
+        <v>394</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
@@ -11023,19 +11056,19 @@
         <v>85</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>387</v>
+        <v>395</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>388</v>
+        <v>396</v>
       </c>
       <c r="N83" t="s" s="2">
-        <v>389</v>
+        <v>397</v>
       </c>
       <c r="O83" t="s" s="2">
-        <v>390</v>
+        <v>398</v>
       </c>
       <c r="P83" t="s" s="2">
         <v>74</v>
@@ -11048,7 +11081,7 @@
         <v>74</v>
       </c>
       <c r="T83" t="s" s="2">
-        <v>391</v>
+        <v>399</v>
       </c>
       <c r="U83" t="s" s="2">
         <v>74</v>
@@ -11084,7 +11117,7 @@
         <v>74</v>
       </c>
       <c r="AF83" t="s" s="2">
-        <v>392</v>
+        <v>400</v>
       </c>
       <c r="AG83" t="s" s="2">
         <v>75</v>
@@ -11105,15 +11138,15 @@
         <v>74</v>
       </c>
       <c r="AM83" t="s" s="2">
-        <v>393</v>
+        <v>401</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>394</v>
+        <v>402</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>395</v>
+        <v>403</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
@@ -11136,17 +11169,17 @@
         <v>85</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>396</v>
+        <v>404</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>397</v>
+        <v>405</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>398</v>
+        <v>406</v>
       </c>
       <c r="N84" s="2"/>
       <c r="O84" t="s" s="2">
-        <v>399</v>
+        <v>407</v>
       </c>
       <c r="P84" t="s" s="2">
         <v>74</v>
@@ -11195,7 +11228,7 @@
         <v>74</v>
       </c>
       <c r="AF84" t="s" s="2">
-        <v>400</v>
+        <v>408</v>
       </c>
       <c r="AG84" t="s" s="2">
         <v>75</v>
@@ -11216,15 +11249,15 @@
         <v>74</v>
       </c>
       <c r="AM84" t="s" s="2">
-        <v>376</v>
+        <v>384</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>401</v>
+        <v>409</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>402</v>
+        <v>410</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
@@ -11247,13 +11280,13 @@
         <v>74</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>403</v>
+        <v>411</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>404</v>
+        <v>412</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>405</v>
+        <v>413</v>
       </c>
       <c r="N85" s="2"/>
       <c r="O85" s="2"/>
@@ -11304,7 +11337,7 @@
         <v>74</v>
       </c>
       <c r="AF85" t="s" s="2">
-        <v>406</v>
+        <v>414</v>
       </c>
       <c r="AG85" t="s" s="2">
         <v>75</v>
@@ -11325,15 +11358,15 @@
         <v>74</v>
       </c>
       <c r="AM85" t="s" s="2">
-        <v>407</v>
+        <v>415</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s" s="2">
-        <v>408</v>
+        <v>416</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>409</v>
+        <v>417</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" t="s" s="2">
@@ -11356,13 +11389,13 @@
         <v>74</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>403</v>
+        <v>411</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>410</v>
+        <v>418</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>411</v>
+        <v>419</v>
       </c>
       <c r="N86" s="2"/>
       <c r="O86" s="2"/>
@@ -11413,7 +11446,7 @@
         <v>74</v>
       </c>
       <c r="AF86" t="s" s="2">
-        <v>412</v>
+        <v>420</v>
       </c>
       <c r="AG86" t="s" s="2">
         <v>75</v>
@@ -11434,15 +11467,15 @@
         <v>74</v>
       </c>
       <c r="AM86" t="s" s="2">
-        <v>407</v>
+        <v>415</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s" s="2">
-        <v>413</v>
+        <v>421</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>414</v>
+        <v>422</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
@@ -11465,16 +11498,16 @@
         <v>74</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>403</v>
+        <v>411</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>415</v>
+        <v>423</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>416</v>
+        <v>424</v>
       </c>
       <c r="N87" t="s" s="2">
-        <v>417</v>
+        <v>425</v>
       </c>
       <c r="O87" s="2"/>
       <c r="P87" t="s" s="2">
@@ -11524,7 +11557,7 @@
         <v>74</v>
       </c>
       <c r="AF87" t="s" s="2">
-        <v>418</v>
+        <v>426</v>
       </c>
       <c r="AG87" t="s" s="2">
         <v>75</v>
@@ -11545,15 +11578,15 @@
         <v>74</v>
       </c>
       <c r="AM87" t="s" s="2">
-        <v>407</v>
+        <v>415</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s" s="2">
-        <v>419</v>
+        <v>427</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>420</v>
+        <v>428</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" t="s" s="2">
@@ -11576,16 +11609,16 @@
         <v>74</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>421</v>
+        <v>429</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>422</v>
+        <v>430</v>
       </c>
       <c r="M88" t="s" s="2">
-        <v>423</v>
+        <v>431</v>
       </c>
       <c r="N88" t="s" s="2">
-        <v>424</v>
+        <v>432</v>
       </c>
       <c r="O88" s="2"/>
       <c r="P88" t="s" s="2">
@@ -11635,7 +11668,7 @@
         <v>74</v>
       </c>
       <c r="AF88" t="s" s="2">
-        <v>425</v>
+        <v>433</v>
       </c>
       <c r="AG88" t="s" s="2">
         <v>75</v>
@@ -11656,15 +11689,15 @@
         <v>74</v>
       </c>
       <c r="AM88" t="s" s="2">
-        <v>407</v>
+        <v>415</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s" s="2">
-        <v>426</v>
+        <v>434</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>427</v>
+        <v>435</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" t="s" s="2">
@@ -11687,13 +11720,13 @@
         <v>74</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>403</v>
+        <v>411</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>428</v>
+        <v>436</v>
       </c>
       <c r="M89" t="s" s="2">
-        <v>429</v>
+        <v>437</v>
       </c>
       <c r="N89" s="2"/>
       <c r="O89" s="2"/>
@@ -11744,7 +11777,7 @@
         <v>74</v>
       </c>
       <c r="AF89" t="s" s="2">
-        <v>430</v>
+        <v>438</v>
       </c>
       <c r="AG89" t="s" s="2">
         <v>75</v>
@@ -11770,13 +11803,13 @@
     </row>
     <row r="90">
       <c r="A90" t="s" s="2">
-        <v>431</v>
+        <v>439</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="C90" t="s" s="2">
-        <v>432</v>
+        <v>440</v>
       </c>
       <c r="D90" t="s" s="2">
         <v>74</v>
@@ -11798,13 +11831,13 @@
         <v>85</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>242</v>
+        <v>248</v>
       </c>
       <c r="M90" t="s" s="2">
-        <v>243</v>
+        <v>249</v>
       </c>
       <c r="N90" s="2"/>
       <c r="O90" s="2"/>
@@ -11855,7 +11888,7 @@
         <v>74</v>
       </c>
       <c r="AF90" t="s" s="2">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="AG90" t="s" s="2">
         <v>75</v>
@@ -11870,10 +11903,10 @@
         <v>96</v>
       </c>
       <c r="AK90" t="s" s="2">
-        <v>245</v>
+        <v>74</v>
       </c>
       <c r="AL90" t="s" s="2">
-        <v>74</v>
+        <v>251</v>
       </c>
       <c r="AM90" t="s" s="2">
         <v>74</v>
@@ -11881,10 +11914,10 @@
     </row>
     <row r="91">
       <c r="A91" t="s" s="2">
-        <v>433</v>
+        <v>441</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" t="s" s="2">
@@ -11907,13 +11940,13 @@
         <v>74</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="M91" t="s" s="2">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="N91" s="2"/>
       <c r="O91" s="2"/>
@@ -11964,7 +11997,7 @@
         <v>74</v>
       </c>
       <c r="AF91" t="s" s="2">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="AG91" t="s" s="2">
         <v>75</v>
@@ -11973,7 +12006,7 @@
         <v>84</v>
       </c>
       <c r="AI91" t="s" s="2">
-        <v>74</v>
+        <v>153</v>
       </c>
       <c r="AJ91" t="s" s="2">
         <v>74</v>
@@ -11985,19 +12018,19 @@
         <v>74</v>
       </c>
       <c r="AM91" t="s" s="2">
-        <v>145</v>
+        <v>148</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s" s="2">
-        <v>434</v>
+        <v>442</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" t="s" s="2">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="E92" s="2"/>
       <c r="F92" t="s" s="2">
@@ -12016,16 +12049,16 @@
         <v>74</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="M92" t="s" s="2">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="N92" t="s" s="2">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="O92" s="2"/>
       <c r="P92" t="s" s="2">
@@ -12075,7 +12108,7 @@
         <v>74</v>
       </c>
       <c r="AF92" t="s" s="2">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="AG92" t="s" s="2">
         <v>75</v>
@@ -12087,7 +12120,7 @@
         <v>74</v>
       </c>
       <c r="AJ92" t="s" s="2">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="AK92" t="s" s="2">
         <v>74</v>
@@ -12096,19 +12129,19 @@
         <v>74</v>
       </c>
       <c r="AM92" t="s" s="2">
-        <v>145</v>
+        <v>148</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s" s="2">
-        <v>435</v>
+        <v>443</v>
       </c>
       <c r="B93" t="s" s="2">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="C93" s="2"/>
       <c r="D93" t="s" s="2">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="E93" s="2"/>
       <c r="F93" t="s" s="2">
@@ -12127,19 +12160,19 @@
         <v>85</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="M93" t="s" s="2">
-        <v>251</v>
+        <v>257</v>
       </c>
       <c r="N93" t="s" s="2">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="O93" t="s" s="2">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="P93" t="s" s="2">
         <v>74</v>
@@ -12188,7 +12221,7 @@
         <v>74</v>
       </c>
       <c r="AF93" t="s" s="2">
-        <v>252</v>
+        <v>258</v>
       </c>
       <c r="AG93" t="s" s="2">
         <v>75</v>
@@ -12200,7 +12233,7 @@
         <v>74</v>
       </c>
       <c r="AJ93" t="s" s="2">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="AK93" t="s" s="2">
         <v>74</v>
@@ -12209,15 +12242,15 @@
         <v>74</v>
       </c>
       <c r="AM93" t="s" s="2">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s" s="2">
-        <v>436</v>
+        <v>444</v>
       </c>
       <c r="B94" t="s" s="2">
-        <v>253</v>
+        <v>259</v>
       </c>
       <c r="C94" s="2"/>
       <c r="D94" t="s" s="2">
@@ -12240,13 +12273,13 @@
         <v>85</v>
       </c>
       <c r="K94" t="s" s="2">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="M94" t="s" s="2">
-        <v>255</v>
+        <v>261</v>
       </c>
       <c r="N94" s="2"/>
       <c r="O94" s="2"/>
@@ -12258,7 +12291,7 @@
         <v>74</v>
       </c>
       <c r="S94" t="s" s="2">
-        <v>437</v>
+        <v>445</v>
       </c>
       <c r="T94" t="s" s="2">
         <v>74</v>
@@ -12273,13 +12306,13 @@
         <v>74</v>
       </c>
       <c r="X94" t="s" s="2">
-        <v>236</v>
+        <v>242</v>
       </c>
       <c r="Y94" t="s" s="2">
-        <v>256</v>
+        <v>262</v>
       </c>
       <c r="Z94" t="s" s="2">
-        <v>257</v>
+        <v>263</v>
       </c>
       <c r="AA94" t="s" s="2">
         <v>74</v>
@@ -12297,7 +12330,7 @@
         <v>74</v>
       </c>
       <c r="AF94" t="s" s="2">
-        <v>253</v>
+        <v>259</v>
       </c>
       <c r="AG94" t="s" s="2">
         <v>84</v>
@@ -12312,10 +12345,10 @@
         <v>96</v>
       </c>
       <c r="AK94" t="s" s="2">
-        <v>258</v>
+        <v>74</v>
       </c>
       <c r="AL94" t="s" s="2">
-        <v>74</v>
+        <v>264</v>
       </c>
       <c r="AM94" t="s" s="2">
         <v>74</v>
@@ -12323,10 +12356,10 @@
     </row>
     <row r="95">
       <c r="A95" t="s" s="2">
-        <v>438</v>
+        <v>446</v>
       </c>
       <c r="B95" t="s" s="2">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="C95" s="2"/>
       <c r="D95" t="s" s="2">
@@ -12349,13 +12382,13 @@
         <v>85</v>
       </c>
       <c r="K95" t="s" s="2">
-        <v>439</v>
+        <v>447</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>261</v>
+        <v>267</v>
       </c>
       <c r="M95" t="s" s="2">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="N95" s="2"/>
       <c r="O95" s="2"/>
@@ -12394,17 +12427,17 @@
         <v>74</v>
       </c>
       <c r="AB95" t="s" s="2">
-        <v>440</v>
+        <v>448</v>
       </c>
       <c r="AC95" s="2"/>
       <c r="AD95" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE95" t="s" s="2">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="AF95" t="s" s="2">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="AG95" t="s" s="2">
         <v>75</v>
@@ -12419,10 +12452,10 @@
         <v>96</v>
       </c>
       <c r="AK95" t="s" s="2">
-        <v>263</v>
+        <v>74</v>
       </c>
       <c r="AL95" t="s" s="2">
-        <v>74</v>
+        <v>269</v>
       </c>
       <c r="AM95" t="s" s="2">
         <v>74</v>
@@ -12430,13 +12463,13 @@
     </row>
     <row r="96">
       <c r="A96" t="s" s="2">
-        <v>441</v>
+        <v>449</v>
       </c>
       <c r="B96" t="s" s="2">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="C96" t="s" s="2">
-        <v>442</v>
+        <v>450</v>
       </c>
       <c r="D96" t="s" s="2">
         <v>74</v>
@@ -12458,13 +12491,13 @@
         <v>85</v>
       </c>
       <c r="K96" t="s" s="2">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="L96" t="s" s="2">
-        <v>261</v>
+        <v>267</v>
       </c>
       <c r="M96" t="s" s="2">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="N96" s="2"/>
       <c r="O96" s="2"/>
@@ -12515,7 +12548,7 @@
         <v>74</v>
       </c>
       <c r="AF96" t="s" s="2">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="AG96" t="s" s="2">
         <v>75</v>
@@ -12530,10 +12563,10 @@
         <v>96</v>
       </c>
       <c r="AK96" t="s" s="2">
-        <v>263</v>
+        <v>74</v>
       </c>
       <c r="AL96" t="s" s="2">
-        <v>74</v>
+        <v>269</v>
       </c>
       <c r="AM96" t="s" s="2">
         <v>74</v>
@@ -12541,10 +12574,10 @@
     </row>
     <row r="97">
       <c r="A97" t="s" s="2">
-        <v>443</v>
+        <v>451</v>
       </c>
       <c r="B97" t="s" s="2">
-        <v>328</v>
+        <v>334</v>
       </c>
       <c r="C97" s="2"/>
       <c r="D97" t="s" s="2">
@@ -12570,10 +12603,10 @@
         <v>86</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="M97" t="s" s="2">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="N97" s="2"/>
       <c r="O97" s="2"/>
@@ -12624,7 +12657,7 @@
         <v>74</v>
       </c>
       <c r="AF97" t="s" s="2">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="AG97" t="s" s="2">
         <v>75</v>
@@ -12633,7 +12666,7 @@
         <v>84</v>
       </c>
       <c r="AI97" t="s" s="2">
-        <v>74</v>
+        <v>153</v>
       </c>
       <c r="AJ97" t="s" s="2">
         <v>74</v>
@@ -12645,19 +12678,19 @@
         <v>74</v>
       </c>
       <c r="AM97" t="s" s="2">
-        <v>145</v>
+        <v>148</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="s" s="2">
-        <v>444</v>
+        <v>452</v>
       </c>
       <c r="B98" t="s" s="2">
-        <v>330</v>
+        <v>336</v>
       </c>
       <c r="C98" s="2"/>
       <c r="D98" t="s" s="2">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="E98" s="2"/>
       <c r="F98" t="s" s="2">
@@ -12676,16 +12709,16 @@
         <v>74</v>
       </c>
       <c r="K98" t="s" s="2">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="M98" t="s" s="2">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="N98" t="s" s="2">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="O98" s="2"/>
       <c r="P98" t="s" s="2">
@@ -12723,19 +12756,19 @@
         <v>74</v>
       </c>
       <c r="AB98" t="s" s="2">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="AC98" t="s" s="2">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="AD98" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE98" t="s" s="2">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="AF98" t="s" s="2">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="AG98" t="s" s="2">
         <v>75</v>
@@ -12747,7 +12780,7 @@
         <v>74</v>
       </c>
       <c r="AJ98" t="s" s="2">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="AK98" t="s" s="2">
         <v>74</v>
@@ -12756,15 +12789,15 @@
         <v>74</v>
       </c>
       <c r="AM98" t="s" s="2">
-        <v>145</v>
+        <v>148</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="s" s="2">
-        <v>445</v>
+        <v>453</v>
       </c>
       <c r="B99" t="s" s="2">
-        <v>446</v>
+        <v>454</v>
       </c>
       <c r="C99" s="2"/>
       <c r="D99" t="s" s="2">
@@ -12787,19 +12820,19 @@
         <v>85</v>
       </c>
       <c r="K99" t="s" s="2">
-        <v>447</v>
+        <v>455</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>448</v>
+        <v>456</v>
       </c>
       <c r="M99" t="s" s="2">
-        <v>449</v>
+        <v>457</v>
       </c>
       <c r="N99" t="s" s="2">
-        <v>450</v>
+        <v>458</v>
       </c>
       <c r="O99" t="s" s="2">
-        <v>451</v>
+        <v>459</v>
       </c>
       <c r="P99" t="s" s="2">
         <v>74</v>
@@ -12848,7 +12881,7 @@
         <v>74</v>
       </c>
       <c r="AF99" t="s" s="2">
-        <v>452</v>
+        <v>460</v>
       </c>
       <c r="AG99" t="s" s="2">
         <v>75</v>
@@ -12869,15 +12902,15 @@
         <v>74</v>
       </c>
       <c r="AM99" t="s" s="2">
-        <v>453</v>
+        <v>461</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="s" s="2">
-        <v>454</v>
+        <v>462</v>
       </c>
       <c r="B100" t="s" s="2">
-        <v>455</v>
+        <v>463</v>
       </c>
       <c r="C100" s="2"/>
       <c r="D100" t="s" s="2">
@@ -12900,19 +12933,19 @@
         <v>85</v>
       </c>
       <c r="K100" t="s" s="2">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="L100" t="s" s="2">
-        <v>456</v>
+        <v>464</v>
       </c>
       <c r="M100" t="s" s="2">
-        <v>457</v>
+        <v>465</v>
       </c>
       <c r="N100" t="s" s="2">
-        <v>458</v>
+        <v>466</v>
       </c>
       <c r="O100" t="s" s="2">
-        <v>459</v>
+        <v>467</v>
       </c>
       <c r="P100" t="s" s="2">
         <v>74</v>
@@ -12961,7 +12994,7 @@
         <v>74</v>
       </c>
       <c r="AF100" t="s" s="2">
-        <v>460</v>
+        <v>468</v>
       </c>
       <c r="AG100" t="s" s="2">
         <v>75</v>
@@ -12982,15 +13015,15 @@
         <v>74</v>
       </c>
       <c r="AM100" t="s" s="2">
-        <v>461</v>
+        <v>469</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="s" s="2">
-        <v>462</v>
+        <v>470</v>
       </c>
       <c r="B101" t="s" s="2">
-        <v>462</v>
+        <v>470</v>
       </c>
       <c r="C101" s="2"/>
       <c r="D101" t="s" s="2">
@@ -13013,13 +13046,13 @@
         <v>85</v>
       </c>
       <c r="K101" t="s" s="2">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="L101" t="s" s="2">
-        <v>463</v>
+        <v>471</v>
       </c>
       <c r="M101" t="s" s="2">
-        <v>464</v>
+        <v>472</v>
       </c>
       <c r="N101" s="2"/>
       <c r="O101" s="2"/>
@@ -13070,7 +13103,7 @@
         <v>74</v>
       </c>
       <c r="AF101" t="s" s="2">
-        <v>462</v>
+        <v>470</v>
       </c>
       <c r="AG101" t="s" s="2">
         <v>75</v>
@@ -13085,10 +13118,10 @@
         <v>96</v>
       </c>
       <c r="AK101" t="s" s="2">
-        <v>245</v>
+        <v>74</v>
       </c>
       <c r="AL101" t="s" s="2">
-        <v>74</v>
+        <v>251</v>
       </c>
       <c r="AM101" t="s" s="2">
         <v>74</v>
@@ -13096,10 +13129,10 @@
     </row>
     <row r="102">
       <c r="A102" t="s" s="2">
-        <v>465</v>
+        <v>473</v>
       </c>
       <c r="B102" t="s" s="2">
-        <v>465</v>
+        <v>473</v>
       </c>
       <c r="C102" s="2"/>
       <c r="D102" t="s" s="2">
@@ -13122,13 +13155,13 @@
         <v>74</v>
       </c>
       <c r="K102" t="s" s="2">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="L102" t="s" s="2">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="M102" t="s" s="2">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="N102" s="2"/>
       <c r="O102" s="2"/>
@@ -13179,7 +13212,7 @@
         <v>74</v>
       </c>
       <c r="AF102" t="s" s="2">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="AG102" t="s" s="2">
         <v>75</v>
@@ -13188,7 +13221,7 @@
         <v>84</v>
       </c>
       <c r="AI102" t="s" s="2">
-        <v>74</v>
+        <v>153</v>
       </c>
       <c r="AJ102" t="s" s="2">
         <v>74</v>
@@ -13200,19 +13233,19 @@
         <v>74</v>
       </c>
       <c r="AM102" t="s" s="2">
-        <v>145</v>
+        <v>148</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="s" s="2">
-        <v>466</v>
+        <v>474</v>
       </c>
       <c r="B103" t="s" s="2">
-        <v>466</v>
+        <v>474</v>
       </c>
       <c r="C103" s="2"/>
       <c r="D103" t="s" s="2">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="E103" s="2"/>
       <c r="F103" t="s" s="2">
@@ -13231,16 +13264,16 @@
         <v>74</v>
       </c>
       <c r="K103" t="s" s="2">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="L103" t="s" s="2">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="M103" t="s" s="2">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="N103" t="s" s="2">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="O103" s="2"/>
       <c r="P103" t="s" s="2">
@@ -13290,7 +13323,7 @@
         <v>74</v>
       </c>
       <c r="AF103" t="s" s="2">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="AG103" t="s" s="2">
         <v>75</v>
@@ -13302,7 +13335,7 @@
         <v>74</v>
       </c>
       <c r="AJ103" t="s" s="2">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="AK103" t="s" s="2">
         <v>74</v>
@@ -13311,19 +13344,19 @@
         <v>74</v>
       </c>
       <c r="AM103" t="s" s="2">
-        <v>145</v>
+        <v>148</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="s" s="2">
-        <v>467</v>
+        <v>475</v>
       </c>
       <c r="B104" t="s" s="2">
-        <v>467</v>
+        <v>475</v>
       </c>
       <c r="C104" s="2"/>
       <c r="D104" t="s" s="2">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="E104" s="2"/>
       <c r="F104" t="s" s="2">
@@ -13342,19 +13375,19 @@
         <v>85</v>
       </c>
       <c r="K104" t="s" s="2">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="L104" t="s" s="2">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="M104" t="s" s="2">
-        <v>251</v>
+        <v>257</v>
       </c>
       <c r="N104" t="s" s="2">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="O104" t="s" s="2">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="P104" t="s" s="2">
         <v>74</v>
@@ -13403,7 +13436,7 @@
         <v>74</v>
       </c>
       <c r="AF104" t="s" s="2">
-        <v>252</v>
+        <v>258</v>
       </c>
       <c r="AG104" t="s" s="2">
         <v>75</v>
@@ -13415,7 +13448,7 @@
         <v>74</v>
       </c>
       <c r="AJ104" t="s" s="2">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="AK104" t="s" s="2">
         <v>74</v>
@@ -13424,15 +13457,15 @@
         <v>74</v>
       </c>
       <c r="AM104" t="s" s="2">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="s" s="2">
-        <v>468</v>
+        <v>476</v>
       </c>
       <c r="B105" t="s" s="2">
-        <v>468</v>
+        <v>476</v>
       </c>
       <c r="C105" s="2"/>
       <c r="D105" t="s" s="2">
@@ -13455,13 +13488,13 @@
         <v>85</v>
       </c>
       <c r="K105" t="s" s="2">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="L105" t="s" s="2">
-        <v>469</v>
+        <v>477</v>
       </c>
       <c r="M105" t="s" s="2">
-        <v>470</v>
+        <v>478</v>
       </c>
       <c r="N105" s="2"/>
       <c r="O105" s="2"/>
@@ -13512,7 +13545,7 @@
         <v>74</v>
       </c>
       <c r="AF105" t="s" s="2">
-        <v>468</v>
+        <v>476</v>
       </c>
       <c r="AG105" t="s" s="2">
         <v>84</v>
@@ -13527,10 +13560,10 @@
         <v>96</v>
       </c>
       <c r="AK105" t="s" s="2">
-        <v>258</v>
+        <v>74</v>
       </c>
       <c r="AL105" t="s" s="2">
-        <v>74</v>
+        <v>264</v>
       </c>
       <c r="AM105" t="s" s="2">
         <v>74</v>
@@ -13538,10 +13571,10 @@
     </row>
     <row r="106">
       <c r="A106" t="s" s="2">
-        <v>471</v>
+        <v>479</v>
       </c>
       <c r="B106" t="s" s="2">
-        <v>471</v>
+        <v>479</v>
       </c>
       <c r="C106" s="2"/>
       <c r="D106" t="s" s="2">
@@ -13564,13 +13597,13 @@
         <v>85</v>
       </c>
       <c r="K106" t="s" s="2">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="L106" t="s" s="2">
-        <v>472</v>
+        <v>480</v>
       </c>
       <c r="M106" t="s" s="2">
-        <v>473</v>
+        <v>481</v>
       </c>
       <c r="N106" s="2"/>
       <c r="O106" s="2"/>
@@ -13621,7 +13654,7 @@
         <v>74</v>
       </c>
       <c r="AF106" t="s" s="2">
-        <v>471</v>
+        <v>479</v>
       </c>
       <c r="AG106" t="s" s="2">
         <v>75</v>
@@ -13647,10 +13680,10 @@
     </row>
     <row r="107">
       <c r="A107" t="s" s="2">
-        <v>474</v>
+        <v>482</v>
       </c>
       <c r="B107" t="s" s="2">
-        <v>474</v>
+        <v>482</v>
       </c>
       <c r="C107" s="2"/>
       <c r="D107" t="s" s="2">
@@ -13673,13 +13706,13 @@
         <v>85</v>
       </c>
       <c r="K107" t="s" s="2">
-        <v>317</v>
+        <v>323</v>
       </c>
       <c r="L107" t="s" s="2">
-        <v>475</v>
+        <v>483</v>
       </c>
       <c r="M107" t="s" s="2">
-        <v>476</v>
+        <v>484</v>
       </c>
       <c r="N107" s="2"/>
       <c r="O107" s="2"/>
@@ -13730,7 +13763,7 @@
         <v>74</v>
       </c>
       <c r="AF107" t="s" s="2">
-        <v>474</v>
+        <v>482</v>
       </c>
       <c r="AG107" t="s" s="2">
         <v>75</v>
@@ -13756,10 +13789,10 @@
     </row>
     <row r="108">
       <c r="A108" t="s" s="2">
-        <v>477</v>
+        <v>485</v>
       </c>
       <c r="B108" t="s" s="2">
-        <v>477</v>
+        <v>485</v>
       </c>
       <c r="C108" s="2"/>
       <c r="D108" t="s" s="2">
@@ -13782,13 +13815,13 @@
         <v>85</v>
       </c>
       <c r="K108" t="s" s="2">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="L108" t="s" s="2">
-        <v>478</v>
+        <v>486</v>
       </c>
       <c r="M108" t="s" s="2">
-        <v>479</v>
+        <v>487</v>
       </c>
       <c r="N108" s="2"/>
       <c r="O108" s="2"/>
@@ -13839,7 +13872,7 @@
         <v>74</v>
       </c>
       <c r="AF108" t="s" s="2">
-        <v>477</v>
+        <v>485</v>
       </c>
       <c r="AG108" t="s" s="2">
         <v>75</v>
@@ -13865,10 +13898,10 @@
     </row>
     <row r="109">
       <c r="A109" t="s" s="2">
-        <v>480</v>
+        <v>488</v>
       </c>
       <c r="B109" t="s" s="2">
-        <v>480</v>
+        <v>488</v>
       </c>
       <c r="C109" s="2"/>
       <c r="D109" t="s" s="2">
@@ -13891,13 +13924,13 @@
         <v>74</v>
       </c>
       <c r="K109" t="s" s="2">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="L109" t="s" s="2">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="M109" t="s" s="2">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="N109" s="2"/>
       <c r="O109" s="2"/>
@@ -13948,7 +13981,7 @@
         <v>74</v>
       </c>
       <c r="AF109" t="s" s="2">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="AG109" t="s" s="2">
         <v>75</v>
@@ -13957,7 +13990,7 @@
         <v>84</v>
       </c>
       <c r="AI109" t="s" s="2">
-        <v>74</v>
+        <v>153</v>
       </c>
       <c r="AJ109" t="s" s="2">
         <v>74</v>
@@ -13969,19 +14002,19 @@
         <v>74</v>
       </c>
       <c r="AM109" t="s" s="2">
-        <v>145</v>
+        <v>148</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="s" s="2">
-        <v>481</v>
+        <v>489</v>
       </c>
       <c r="B110" t="s" s="2">
-        <v>481</v>
+        <v>489</v>
       </c>
       <c r="C110" s="2"/>
       <c r="D110" t="s" s="2">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="E110" s="2"/>
       <c r="F110" t="s" s="2">
@@ -14000,16 +14033,16 @@
         <v>74</v>
       </c>
       <c r="K110" t="s" s="2">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="L110" t="s" s="2">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="M110" t="s" s="2">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="N110" t="s" s="2">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="O110" s="2"/>
       <c r="P110" t="s" s="2">
@@ -14059,7 +14092,7 @@
         <v>74</v>
       </c>
       <c r="AF110" t="s" s="2">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="AG110" t="s" s="2">
         <v>75</v>
@@ -14071,7 +14104,7 @@
         <v>74</v>
       </c>
       <c r="AJ110" t="s" s="2">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="AK110" t="s" s="2">
         <v>74</v>
@@ -14080,19 +14113,19 @@
         <v>74</v>
       </c>
       <c r="AM110" t="s" s="2">
-        <v>145</v>
+        <v>148</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="s" s="2">
-        <v>482</v>
+        <v>490</v>
       </c>
       <c r="B111" t="s" s="2">
-        <v>482</v>
+        <v>490</v>
       </c>
       <c r="C111" s="2"/>
       <c r="D111" t="s" s="2">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="E111" s="2"/>
       <c r="F111" t="s" s="2">
@@ -14111,19 +14144,19 @@
         <v>85</v>
       </c>
       <c r="K111" t="s" s="2">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="L111" t="s" s="2">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="M111" t="s" s="2">
-        <v>251</v>
+        <v>257</v>
       </c>
       <c r="N111" t="s" s="2">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="O111" t="s" s="2">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="P111" t="s" s="2">
         <v>74</v>
@@ -14172,7 +14205,7 @@
         <v>74</v>
       </c>
       <c r="AF111" t="s" s="2">
-        <v>252</v>
+        <v>258</v>
       </c>
       <c r="AG111" t="s" s="2">
         <v>75</v>
@@ -14184,7 +14217,7 @@
         <v>74</v>
       </c>
       <c r="AJ111" t="s" s="2">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="AK111" t="s" s="2">
         <v>74</v>
@@ -14193,15 +14226,15 @@
         <v>74</v>
       </c>
       <c r="AM111" t="s" s="2">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="s" s="2">
-        <v>483</v>
+        <v>491</v>
       </c>
       <c r="B112" t="s" s="2">
-        <v>483</v>
+        <v>491</v>
       </c>
       <c r="C112" s="2"/>
       <c r="D112" t="s" s="2">
@@ -14224,13 +14257,13 @@
         <v>85</v>
       </c>
       <c r="K112" t="s" s="2">
-        <v>317</v>
+        <v>323</v>
       </c>
       <c r="L112" t="s" s="2">
-        <v>484</v>
+        <v>492</v>
       </c>
       <c r="M112" t="s" s="2">
-        <v>485</v>
+        <v>493</v>
       </c>
       <c r="N112" s="2"/>
       <c r="O112" s="2"/>
@@ -14281,7 +14314,7 @@
         <v>74</v>
       </c>
       <c r="AF112" t="s" s="2">
-        <v>483</v>
+        <v>491</v>
       </c>
       <c r="AG112" t="s" s="2">
         <v>75</v>
@@ -14307,10 +14340,10 @@
     </row>
     <row r="113">
       <c r="A113" t="s" s="2">
-        <v>486</v>
+        <v>494</v>
       </c>
       <c r="B113" t="s" s="2">
-        <v>486</v>
+        <v>494</v>
       </c>
       <c r="C113" s="2"/>
       <c r="D113" t="s" s="2">
@@ -14333,13 +14366,13 @@
         <v>85</v>
       </c>
       <c r="K113" t="s" s="2">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="L113" t="s" s="2">
-        <v>487</v>
+        <v>495</v>
       </c>
       <c r="M113" t="s" s="2">
-        <v>488</v>
+        <v>496</v>
       </c>
       <c r="N113" s="2"/>
       <c r="O113" s="2"/>
@@ -14390,7 +14423,7 @@
         <v>74</v>
       </c>
       <c r="AF113" t="s" s="2">
-        <v>486</v>
+        <v>494</v>
       </c>
       <c r="AG113" t="s" s="2">
         <v>75</v>
@@ -14416,10 +14449,10 @@
     </row>
     <row r="114">
       <c r="A114" t="s" s="2">
-        <v>489</v>
+        <v>497</v>
       </c>
       <c r="B114" t="s" s="2">
-        <v>489</v>
+        <v>497</v>
       </c>
       <c r="C114" s="2"/>
       <c r="D114" t="s" s="2">
@@ -14442,13 +14475,13 @@
         <v>85</v>
       </c>
       <c r="K114" t="s" s="2">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="L114" t="s" s="2">
-        <v>490</v>
+        <v>498</v>
       </c>
       <c r="M114" t="s" s="2">
-        <v>491</v>
+        <v>499</v>
       </c>
       <c r="N114" s="2"/>
       <c r="O114" s="2"/>
@@ -14499,7 +14532,7 @@
         <v>74</v>
       </c>
       <c r="AF114" t="s" s="2">
-        <v>489</v>
+        <v>497</v>
       </c>
       <c r="AG114" t="s" s="2">
         <v>75</v>
@@ -14525,10 +14558,10 @@
     </row>
     <row r="115">
       <c r="A115" t="s" s="2">
-        <v>492</v>
+        <v>500</v>
       </c>
       <c r="B115" t="s" s="2">
-        <v>492</v>
+        <v>500</v>
       </c>
       <c r="C115" s="2"/>
       <c r="D115" t="s" s="2">
@@ -14551,13 +14584,13 @@
         <v>85</v>
       </c>
       <c r="K115" t="s" s="2">
-        <v>493</v>
+        <v>501</v>
       </c>
       <c r="L115" t="s" s="2">
-        <v>494</v>
+        <v>502</v>
       </c>
       <c r="M115" t="s" s="2">
-        <v>495</v>
+        <v>503</v>
       </c>
       <c r="N115" s="2"/>
       <c r="O115" s="2"/>
@@ -14608,7 +14641,7 @@
         <v>74</v>
       </c>
       <c r="AF115" t="s" s="2">
-        <v>492</v>
+        <v>500</v>
       </c>
       <c r="AG115" t="s" s="2">
         <v>75</v>
@@ -14634,10 +14667,10 @@
     </row>
     <row r="116">
       <c r="A116" t="s" s="2">
-        <v>496</v>
+        <v>504</v>
       </c>
       <c r="B116" t="s" s="2">
-        <v>496</v>
+        <v>504</v>
       </c>
       <c r="C116" s="2"/>
       <c r="D116" t="s" s="2">
@@ -14663,10 +14696,10 @@
         <v>77</v>
       </c>
       <c r="L116" t="s" s="2">
-        <v>497</v>
+        <v>505</v>
       </c>
       <c r="M116" t="s" s="2">
-        <v>498</v>
+        <v>506</v>
       </c>
       <c r="N116" s="2"/>
       <c r="O116" s="2"/>
@@ -14717,7 +14750,7 @@
         <v>74</v>
       </c>
       <c r="AF116" t="s" s="2">
-        <v>496</v>
+        <v>504</v>
       </c>
       <c r="AG116" t="s" s="2">
         <v>75</v>
@@ -14743,10 +14776,10 @@
     </row>
     <row r="117">
       <c r="A117" t="s" s="2">
-        <v>499</v>
+        <v>507</v>
       </c>
       <c r="B117" t="s" s="2">
-        <v>499</v>
+        <v>507</v>
       </c>
       <c r="C117" s="2"/>
       <c r="D117" t="s" s="2">
@@ -14772,10 +14805,10 @@
         <v>77</v>
       </c>
       <c r="L117" t="s" s="2">
-        <v>500</v>
+        <v>508</v>
       </c>
       <c r="M117" t="s" s="2">
-        <v>501</v>
+        <v>509</v>
       </c>
       <c r="N117" s="2"/>
       <c r="O117" s="2"/>
@@ -14826,7 +14859,7 @@
         <v>74</v>
       </c>
       <c r="AF117" t="s" s="2">
-        <v>499</v>
+        <v>507</v>
       </c>
       <c r="AG117" t="s" s="2">
         <v>75</v>

--- a/branches/master/StructureDefinition-ManufacturedItemDefinition-uv-epi.xlsx
+++ b/branches/master/StructureDefinition-ManufacturedItemDefinition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-05T09:48:34+00:00</t>
+    <t>2023-04-05T12:01:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-ManufacturedItemDefinition-uv-epi.xlsx
+++ b/branches/master/StructureDefinition-ManufacturedItemDefinition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-05T12:01:25+00:00</t>
+    <t>2023-04-05T12:06:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-ManufacturedItemDefinition-uv-epi.xlsx
+++ b/branches/master/StructureDefinition-ManufacturedItemDefinition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-05T12:06:03+00:00</t>
+    <t>2023-04-05T13:49:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
